--- a/trunk/RiverCruise/Data/River Cruise Ships Europe 2012.xlsx
+++ b/trunk/RiverCruise/Data/River Cruise Ships Europe 2012.xlsx
@@ -1501,160 +1501,6 @@
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
 <headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{378ECCFA-D24C-49D5-9BC0-060C1DC31D37}" diskRevisions="1" revisionId="1846" version="23">
-  <header guid="{D814CC75-12F7-489F-938A-0261F5E19BEF}" dateTime="2013-02-04T15:45:41" maxSheetId="4" userName="Rossen Karavatchev" r:id="rId13" minRId="978" maxRId="1120">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{0D9EFB4E-A5BF-4468-B867-392FE96A83C7}" dateTime="2014-12-28T17:07:31" maxSheetId="4" userName="Likkedwagon" r:id="rId14" minRId="1122" maxRId="1129">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{0F88B237-8E85-4D31-9E9C-58B54EC41881}" dateTime="2014-12-28T17:11:27" maxSheetId="4" userName="Likkedwagon" r:id="rId15" minRId="1131" maxRId="1180">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{AC8299E1-4365-4908-967C-9874A72564E6}" dateTime="2014-12-28T17:16:05" maxSheetId="4" userName="Likkedwagon" r:id="rId16" minRId="1181" maxRId="1190">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{D9744B04-B6AE-4112-AFC3-9F3F2DD6C97F}" dateTime="2014-12-28T17:34:16" maxSheetId="4" userName="Likkedwagon" r:id="rId17" minRId="1191" maxRId="1492">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{FB33B466-70D7-4EBE-9A70-3AC5DE8DFA28}" dateTime="2014-12-28T17:43:33" maxSheetId="4" userName="Likkedwagon" r:id="rId18" minRId="1493" maxRId="1536">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{821B8630-B652-4ED2-A4A0-F9E3CC76063D}" dateTime="2014-12-28T17:43:39" maxSheetId="4" userName="Likkedwagon" r:id="rId19" minRId="1537">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{1041915F-0095-4737-9A77-20563FAD2379}" dateTime="2014-12-28T17:43:47" maxSheetId="4" userName="Likkedwagon" r:id="rId20" minRId="1538">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{DA64B0DA-FE18-4167-B6DA-5E1D1EFF5403}" dateTime="2014-12-28T17:43:53" maxSheetId="4" userName="Likkedwagon" r:id="rId21" minRId="1539">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{02B099BC-6F58-4495-A49F-A6BECCEA5B99}" dateTime="2014-12-28T17:44:01" maxSheetId="4" userName="Likkedwagon" r:id="rId22" minRId="1540">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{F3366BB1-04B5-4461-9900-294325F9F3D5}" dateTime="2014-12-28T17:44:07" maxSheetId="4" userName="Likkedwagon" r:id="rId23" minRId="1541">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{6BC9C975-9529-4123-BFC9-9BC69BD3092A}" dateTime="2014-12-28T17:44:14" maxSheetId="4" userName="Likkedwagon" r:id="rId24" minRId="1542">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{9E1D74AA-3715-4C7D-8F8C-AB2A643C3478}" dateTime="2014-12-28T17:44:18" maxSheetId="4" userName="Likkedwagon" r:id="rId25" minRId="1543">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{97577DA6-5468-4287-93BC-D62F58108988}" dateTime="2014-12-28T17:44:22" maxSheetId="4" userName="Likkedwagon" r:id="rId26" minRId="1544">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{EAC7D69F-AD3F-4526-A736-A310FB39DDEB}" dateTime="2014-12-28T17:44:26" maxSheetId="4" userName="Likkedwagon" r:id="rId27" minRId="1545">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{12C7DB48-1B27-423D-8E76-BFA592A6D355}" dateTime="2014-12-28T17:44:30" maxSheetId="4" userName="Likkedwagon" r:id="rId28" minRId="1546">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{C8108828-308A-45E9-A33E-2FEEB44AF7C6}" dateTime="2014-12-28T17:44:35" maxSheetId="4" userName="Likkedwagon" r:id="rId29" minRId="1547">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{BA53F233-CA81-421F-95DF-2DDFE4B6F25B}" dateTime="2014-12-28T17:44:44" maxSheetId="4" userName="Likkedwagon" r:id="rId30" minRId="1548" maxRId="1549">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{BC4CBA0C-A4F9-49F9-8EA4-0FAB5B76D83D}" dateTime="2014-12-28T17:44:51" maxSheetId="4" userName="Likkedwagon" r:id="rId31" minRId="1550">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{7EE065B6-C209-44CC-840F-CDCA329CE16F}" dateTime="2014-12-28T17:44:57" maxSheetId="4" userName="Likkedwagon" r:id="rId32" minRId="1551">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{975A6615-37FB-48F7-960C-5A957FA74FC7}" dateTime="2014-12-28T17:45:01" maxSheetId="4" userName="Likkedwagon" r:id="rId33" minRId="1552">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{98104E6F-1D6C-40AB-B84A-5E83E21D4FA7}" dateTime="2014-12-28T17:45:06" maxSheetId="4" userName="Likkedwagon" r:id="rId34" minRId="1553">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
   <header guid="{378ECCFA-D24C-49D5-9BC0-060C1DC31D37}" dateTime="2014-12-28T19:28:38" maxSheetId="4" userName="Likkedwagon" r:id="rId35" minRId="1554" maxRId="1846">
     <sheetIdMap count="3">
       <sheetId val="1"/>
@@ -5114,5251 +4960,8 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog11.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="1493" sId="1">
-    <oc r="K19">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </oc>
-    <nc r="K19">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp;A19&amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1494" sId="1">
-    <oc r="K29">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </oc>
-    <nc r="K29">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp;A29&amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1495" sId="1">
-    <oc r="K31">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </oc>
-    <nc r="K31">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp;A31&amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1496" sId="1">
-    <oc r="K35">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </oc>
-    <nc r="K35">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp;A35&amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1497" sId="1">
-    <oc r="K40">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </oc>
-    <nc r="K40">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp;A40&amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1498" sId="1">
-    <oc r="K42">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </oc>
-    <nc r="K42">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp;A42&amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1499" sId="1">
-    <oc r="K46">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </oc>
-    <nc r="K46">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp;A46&amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1500" sId="1">
-    <oc r="K49">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </oc>
-    <nc r="K49">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp;A49&amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1501" sId="1">
-    <oc r="K52">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </oc>
-    <nc r="K52">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp;A52&amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1502" sId="1">
-    <oc r="K79">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </oc>
-    <nc r="K79">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp;A79&amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1503" sId="1">
-    <oc r="K81">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </oc>
-    <nc r="K81">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp;A81&amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1504" sId="1">
-    <oc r="K87">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </oc>
-    <nc r="K87">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp;A87&amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1505" sId="1">
-    <oc r="K94">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </oc>
-    <nc r="K94">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp;A94&amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1506" sId="1">
-    <oc r="K101">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </oc>
-    <nc r="K101">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp;A101&amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1507" sId="1">
-    <oc r="K103">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </oc>
-    <nc r="K103">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp;A103&amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1508" sId="1">
-    <oc r="K105">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </oc>
-    <nc r="K105">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp;A105&amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1509" sId="1">
-    <oc r="K119">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </oc>
-    <nc r="K119">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp;A119&amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1510" sId="1">
-    <oc r="K130">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </oc>
-    <nc r="K130">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp;A130&amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1511" sId="1">
-    <oc r="K132">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </oc>
-    <nc r="K132">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp;A132&amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1512" sId="1">
-    <oc r="K143">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </oc>
-    <nc r="K143">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp;A143&amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1513" sId="1">
-    <oc r="K147">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </oc>
-    <nc r="K147">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp;A147&amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1514" sId="1">
-    <oc r="K149">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </oc>
-    <nc r="K149">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp;A149&amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1515" sId="1">
-    <oc r="K160">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </oc>
-    <nc r="K160">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp;A160&amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1516" sId="1">
-    <oc r="K162">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </oc>
-    <nc r="K162">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp;A162&amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1517" sId="1">
-    <oc r="K164">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </oc>
-    <nc r="K164">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp;A164&amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1518" sId="1">
-    <oc r="K166">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </oc>
-    <nc r="K166">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp;A166&amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1519" sId="1">
-    <oc r="K170">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </oc>
-    <nc r="K170">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp;A170&amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1520" sId="1">
-    <oc r="K172">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </oc>
-    <nc r="K172">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp;A172&amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1521" sId="1">
-    <oc r="K191">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </oc>
-    <nc r="K191">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp;A191&amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1522" sId="1">
-    <oc r="K194">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </oc>
-    <nc r="K194">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp;A194&amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1523" sId="1">
-    <oc r="K226">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </oc>
-    <nc r="K226">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp;A226&amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1524" sId="1">
-    <oc r="K229">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </oc>
-    <nc r="K229">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp;A229&amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1525" sId="1">
-    <oc r="K236">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </oc>
-    <nc r="K236">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp;A236&amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1526" sId="1">
-    <oc r="K239">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </oc>
-    <nc r="K239">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp;A239&amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1527" sId="1">
-    <oc r="K258">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </oc>
-    <nc r="K258">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp;A258&amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1528" sId="1">
-    <oc r="K261">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </oc>
-    <nc r="K261">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp;A261&amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1529" sId="1">
-    <oc r="K263">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </oc>
-    <nc r="K263">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp;A263&amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1530" sId="1">
-    <oc r="K265">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </oc>
-    <nc r="K265">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp;A265&amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1531" sId="1">
-    <oc r="K270">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </oc>
-    <nc r="K270">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp;A270&amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1532" sId="1">
-    <oc r="K272">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </oc>
-    <nc r="K272">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp;A272&amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1533" sId="1">
-    <oc r="K292">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </oc>
-    <nc r="K292">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp;A292&amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1534" sId="1">
-    <oc r="K296">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </oc>
-    <nc r="K296">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp;A296&amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1535" sId="1">
-    <oc r="A31" t="inlineStr">
-      <is>
-        <t>Beijerland Handel &amp; 
-Scheepvaart BV</t>
-      </is>
-    </oc>
-    <nc r="A31" t="inlineStr">
-      <is>
-        <t>Beijerland Handel &amp; Scheepvaart BV</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="1536" sId="1">
-    <oc r="A52" t="inlineStr">
-      <is>
-        <t>Croisi Europe, 
-Strassbourg</t>
-      </is>
-    </oc>
-    <nc r="A52" t="inlineStr">
-      <is>
-        <t>Croisi Europe, Strassbourg</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog111.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="1191" sId="1" odxf="1" dxf="1">
-    <nc r="K17">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C17&amp;""", Flag = """&amp;D17&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H17&amp;", NauticalCrew ="&amp;G17&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B17&amp;""", Region = """&amp;E17&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1192" sId="1" odxf="1" dxf="1">
-    <nc r="K18">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C18&amp;""", Flag = """&amp;D18&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H18&amp;", NauticalCrew ="&amp;G18&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B18&amp;""", Region = """&amp;E18&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1193" sId="1" odxf="1" dxf="1">
-    <nc r="K20">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C20&amp;""", Flag = """&amp;D20&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H20&amp;", NauticalCrew ="&amp;G20&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B20&amp;""", Region = """&amp;E20&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1194" sId="1" odxf="1" dxf="1">
-    <nc r="K21">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C21&amp;""", Flag = """&amp;D21&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H21&amp;", NauticalCrew ="&amp;G21&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B21&amp;""", Region = """&amp;E21&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1195" sId="1" odxf="1" dxf="1">
-    <nc r="K22">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C22&amp;""", Flag = """&amp;D22&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H22&amp;", NauticalCrew ="&amp;G22&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B22&amp;""", Region = """&amp;E22&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1196" sId="1" odxf="1" dxf="1">
-    <nc r="K23">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C23&amp;""", Flag = """&amp;D23&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H23&amp;", NauticalCrew ="&amp;G23&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B23&amp;""", Region = """&amp;E23&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1197" sId="1" odxf="1" dxf="1">
-    <nc r="K24">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C24&amp;""", Flag = """&amp;D24&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H24&amp;", NauticalCrew ="&amp;G24&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B24&amp;""", Region = """&amp;E24&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1198" sId="1" odxf="1" dxf="1">
-    <nc r="K25">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C25&amp;""", Flag = """&amp;D25&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H25&amp;", NauticalCrew ="&amp;G25&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B25&amp;""", Region = """&amp;E25&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1199" sId="1" odxf="1" dxf="1">
-    <nc r="K26">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C26&amp;""", Flag = """&amp;D26&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H26&amp;", NauticalCrew ="&amp;G26&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B26&amp;""", Region = """&amp;E26&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1200" sId="1" odxf="1" dxf="1">
-    <nc r="K27">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C27&amp;""", Flag = """&amp;D27&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H27&amp;", NauticalCrew ="&amp;G27&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B27&amp;""", Region = """&amp;E27&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1201" sId="1" odxf="1" dxf="1">
-    <nc r="K28">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C28&amp;""", Flag = """&amp;D28&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H28&amp;", NauticalCrew ="&amp;G28&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B28&amp;""", Region = """&amp;E28&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1202" sId="1" odxf="1" dxf="1">
-    <nc r="K30">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C30&amp;""", Flag = """&amp;D30&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H30&amp;", NauticalCrew ="&amp;G30&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B30&amp;""", Region = """&amp;E30&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1203" sId="1" odxf="1" dxf="1">
-    <nc r="K32">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C32&amp;""", Flag = """&amp;D32&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H32&amp;", NauticalCrew ="&amp;G32&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B32&amp;""", Region = """&amp;E32&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1204" sId="1" odxf="1" dxf="1">
-    <nc r="K33">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C33&amp;""", Flag = """&amp;D33&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H33&amp;", NauticalCrew ="&amp;G33&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B33&amp;""", Region = """&amp;E33&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1205" sId="1" odxf="1" dxf="1">
-    <nc r="K34">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C34&amp;""", Flag = """&amp;D34&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H34&amp;", NauticalCrew ="&amp;G34&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B34&amp;""", Region = """&amp;E34&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1206" sId="1" odxf="1" dxf="1">
-    <nc r="K36">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C36&amp;""", Flag = """&amp;D36&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H36&amp;", NauticalCrew ="&amp;G36&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B36&amp;""", Region = """&amp;E36&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1207" sId="1" odxf="1" dxf="1">
-    <nc r="K37">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C37&amp;""", Flag = """&amp;D37&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H37&amp;", NauticalCrew ="&amp;G37&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B37&amp;""", Region = """&amp;E37&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1208" sId="1" odxf="1" dxf="1">
-    <nc r="K38">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C38&amp;""", Flag = """&amp;D38&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H38&amp;", NauticalCrew ="&amp;G38&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B38&amp;""", Region = """&amp;E38&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1209" sId="1" odxf="1" dxf="1">
-    <nc r="K39">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C39&amp;""", Flag = """&amp;D39&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H39&amp;", NauticalCrew ="&amp;G39&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B39&amp;""", Region = """&amp;E39&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1210" sId="1" odxf="1" dxf="1">
-    <nc r="K41">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C41&amp;""", Flag = """&amp;D41&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H41&amp;", NauticalCrew ="&amp;G41&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B41&amp;""", Region = """&amp;E41&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1211" sId="1" odxf="1" dxf="1">
-    <nc r="K43">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C43&amp;""", Flag = """&amp;D43&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H43&amp;", NauticalCrew ="&amp;G43&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B43&amp;""", Region = """&amp;E43&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1212" sId="1" odxf="1" dxf="1">
-    <nc r="K44">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C44&amp;""", Flag = """&amp;D44&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H44&amp;", NauticalCrew ="&amp;G44&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B44&amp;""", Region = """&amp;E44&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1213" sId="1" odxf="1" dxf="1">
-    <nc r="K45">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C45&amp;""", Flag = """&amp;D45&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H45&amp;", NauticalCrew ="&amp;G45&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B45&amp;""", Region = """&amp;E45&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1214" sId="1" odxf="1" dxf="1">
-    <nc r="K47">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C47&amp;""", Flag = """&amp;D47&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H47&amp;", NauticalCrew ="&amp;G47&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B47&amp;""", Region = """&amp;E47&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1215" sId="1" odxf="1" dxf="1">
-    <nc r="K48">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C48&amp;""", Flag = """&amp;D48&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H48&amp;", NauticalCrew ="&amp;G48&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B48&amp;""", Region = """&amp;E48&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1216" sId="1" odxf="1" dxf="1">
-    <nc r="K50">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C50&amp;""", Flag = """&amp;D50&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H50&amp;", NauticalCrew ="&amp;G50&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B50&amp;""", Region = """&amp;E50&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1217" sId="1" odxf="1" dxf="1">
-    <nc r="K51">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C51&amp;""", Flag = """&amp;D51&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H51&amp;", NauticalCrew ="&amp;G51&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B51&amp;""", Region = """&amp;E51&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1218" sId="1" odxf="1" dxf="1">
-    <nc r="K53">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C53&amp;""", Flag = """&amp;D53&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H53&amp;", NauticalCrew ="&amp;G53&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B53&amp;""", Region = """&amp;E53&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1219" sId="1" odxf="1" dxf="1">
-    <nc r="K54">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C54&amp;""", Flag = """&amp;D54&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H54&amp;", NauticalCrew ="&amp;G54&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B54&amp;""", Region = """&amp;E54&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1220" sId="1" odxf="1" dxf="1">
-    <nc r="K55">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C55&amp;""", Flag = """&amp;D55&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H55&amp;", NauticalCrew ="&amp;G55&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B55&amp;""", Region = """&amp;E55&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1221" sId="1" odxf="1" dxf="1">
-    <nc r="K56">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C56&amp;""", Flag = """&amp;D56&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H56&amp;", NauticalCrew ="&amp;G56&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B56&amp;""", Region = """&amp;E56&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1222" sId="1" odxf="1" dxf="1">
-    <nc r="K57">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C57&amp;""", Flag = """&amp;D57&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H57&amp;", NauticalCrew ="&amp;G57&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B57&amp;""", Region = """&amp;E57&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1223" sId="1" odxf="1" dxf="1">
-    <nc r="K58">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C58&amp;""", Flag = """&amp;D58&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H58&amp;", NauticalCrew ="&amp;G58&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B58&amp;""", Region = """&amp;E58&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1224" sId="1" odxf="1" dxf="1">
-    <nc r="K59">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C59&amp;""", Flag = """&amp;D59&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H59&amp;", NauticalCrew ="&amp;G59&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B59&amp;""", Region = """&amp;E59&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1225" sId="1" odxf="1" dxf="1">
-    <nc r="K60">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C60&amp;""", Flag = """&amp;D60&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H60&amp;", NauticalCrew ="&amp;G60&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B60&amp;""", Region = """&amp;E60&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1226" sId="1" odxf="1" dxf="1">
-    <nc r="K61">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C61&amp;""", Flag = """&amp;D61&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H61&amp;", NauticalCrew ="&amp;G61&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B61&amp;""", Region = """&amp;E61&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1227" sId="1" odxf="1" dxf="1">
-    <nc r="K62">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C62&amp;""", Flag = """&amp;D62&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H62&amp;", NauticalCrew ="&amp;G62&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B62&amp;""", Region = """&amp;E62&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1228" sId="1" odxf="1" dxf="1">
-    <nc r="K63">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C63&amp;""", Flag = """&amp;D63&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H63&amp;", NauticalCrew ="&amp;G63&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B63&amp;""", Region = """&amp;E63&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1229" sId="1" odxf="1" dxf="1">
-    <nc r="K64">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C64&amp;""", Flag = """&amp;D64&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H64&amp;", NauticalCrew ="&amp;G64&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B64&amp;""", Region = """&amp;E64&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1230" sId="1" odxf="1" dxf="1">
-    <nc r="K65">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C65&amp;""", Flag = """&amp;D65&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H65&amp;", NauticalCrew ="&amp;G65&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B65&amp;""", Region = """&amp;E65&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1231" sId="1" odxf="1" dxf="1">
-    <nc r="K66">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C66&amp;""", Flag = """&amp;D66&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H66&amp;", NauticalCrew ="&amp;G66&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B66&amp;""", Region = """&amp;E66&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1232" sId="1" odxf="1" dxf="1">
-    <nc r="K67">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C67&amp;""", Flag = """&amp;D67&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H67&amp;", NauticalCrew ="&amp;G67&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B67&amp;""", Region = """&amp;E67&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1233" sId="1" odxf="1" dxf="1">
-    <nc r="K68">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C68&amp;""", Flag = """&amp;D68&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H68&amp;", NauticalCrew ="&amp;G68&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B68&amp;""", Region = """&amp;E68&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1234" sId="1" odxf="1" dxf="1">
-    <nc r="K69">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C69&amp;""", Flag = """&amp;D69&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H69&amp;", NauticalCrew ="&amp;G69&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B69&amp;""", Region = """&amp;E69&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1235" sId="1" odxf="1" dxf="1">
-    <nc r="K70">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C70&amp;""", Flag = """&amp;D70&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H70&amp;", NauticalCrew ="&amp;G70&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B70&amp;""", Region = """&amp;E70&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1236" sId="1" odxf="1" dxf="1">
-    <nc r="K71">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C71&amp;""", Flag = """&amp;D71&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H71&amp;", NauticalCrew ="&amp;G71&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B71&amp;""", Region = """&amp;E71&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1237" sId="1" odxf="1" dxf="1">
-    <nc r="K72">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C72&amp;""", Flag = """&amp;D72&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H72&amp;", NauticalCrew ="&amp;G72&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B72&amp;""", Region = """&amp;E72&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1238" sId="1" odxf="1" dxf="1">
-    <nc r="K73">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C73&amp;""", Flag = """&amp;D73&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H73&amp;", NauticalCrew ="&amp;G73&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B73&amp;""", Region = """&amp;E73&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1239" sId="1" odxf="1" dxf="1">
-    <nc r="K74">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C74&amp;""", Flag = """&amp;D74&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H74&amp;", NauticalCrew ="&amp;G74&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B74&amp;""", Region = """&amp;E74&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1240" sId="1" odxf="1" dxf="1">
-    <nc r="K75">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C75&amp;""", Flag = """&amp;D75&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H75&amp;", NauticalCrew ="&amp;G75&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B75&amp;""", Region = """&amp;E75&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1241" sId="1" odxf="1" dxf="1">
-    <nc r="K76">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C76&amp;""", Flag = """&amp;D76&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H76&amp;", NauticalCrew ="&amp;G76&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B76&amp;""", Region = """&amp;E76&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1242" sId="1" odxf="1" dxf="1">
-    <nc r="K77">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C77&amp;""", Flag = """&amp;D77&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H77&amp;", NauticalCrew ="&amp;G77&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B77&amp;""", Region = """&amp;E77&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1243" sId="1" odxf="1" dxf="1">
-    <nc r="K78">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C78&amp;""", Flag = """&amp;D78&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H78&amp;", NauticalCrew ="&amp;G78&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B78&amp;""", Region = """&amp;E78&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1244" sId="1" odxf="1" dxf="1">
-    <nc r="K80">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C80&amp;""", Flag = """&amp;D80&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H80&amp;", NauticalCrew ="&amp;G80&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B80&amp;""", Region = """&amp;E80&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1245" sId="1" odxf="1" dxf="1">
-    <nc r="K82">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C82&amp;""", Flag = """&amp;D82&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H82&amp;", NauticalCrew ="&amp;G82&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B82&amp;""", Region = """&amp;E82&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1246" sId="1" odxf="1" dxf="1">
-    <nc r="K83">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C83&amp;""", Flag = """&amp;D83&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H83&amp;", NauticalCrew ="&amp;G83&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B83&amp;""", Region = """&amp;E83&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1247" sId="1" odxf="1" dxf="1">
-    <nc r="K84">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C84&amp;""", Flag = """&amp;D84&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H84&amp;", NauticalCrew ="&amp;G84&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B84&amp;""", Region = """&amp;E84&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1248" sId="1" odxf="1" dxf="1">
-    <nc r="K85">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C85&amp;""", Flag = """&amp;D85&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H85&amp;", NauticalCrew ="&amp;G85&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B85&amp;""", Region = """&amp;E85&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1249" sId="1" odxf="1" dxf="1">
-    <nc r="K86">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C86&amp;""", Flag = """&amp;D86&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H86&amp;", NauticalCrew ="&amp;G86&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B86&amp;""", Region = """&amp;E86&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1250" sId="1" odxf="1" dxf="1">
-    <nc r="K88">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C88&amp;""", Flag = """&amp;D88&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H88&amp;", NauticalCrew ="&amp;G88&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B88&amp;""", Region = """&amp;E88&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1251" sId="1" odxf="1" dxf="1">
-    <nc r="K89">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C89&amp;""", Flag = """&amp;D89&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H89&amp;", NauticalCrew ="&amp;G89&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B89&amp;""", Region = """&amp;E89&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1252" sId="1" odxf="1" dxf="1">
-    <nc r="K90">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C90&amp;""", Flag = """&amp;D90&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H90&amp;", NauticalCrew ="&amp;G90&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B90&amp;""", Region = """&amp;E90&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1253" sId="1" odxf="1" dxf="1">
-    <nc r="K91">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C91&amp;""", Flag = """&amp;D91&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H91&amp;", NauticalCrew ="&amp;G91&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B91&amp;""", Region = """&amp;E91&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1254" sId="1" odxf="1" dxf="1">
-    <nc r="K92">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C92&amp;""", Flag = """&amp;D92&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H92&amp;", NauticalCrew ="&amp;G92&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B92&amp;""", Region = """&amp;E92&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1255" sId="1" odxf="1" dxf="1">
-    <nc r="K93">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C93&amp;""", Flag = """&amp;D93&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H93&amp;", NauticalCrew ="&amp;G93&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B93&amp;""", Region = """&amp;E93&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1256" sId="1" odxf="1" dxf="1">
-    <nc r="K95">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C95&amp;""", Flag = """&amp;D95&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H95&amp;", NauticalCrew ="&amp;G95&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B95&amp;""", Region = """&amp;E95&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1257" sId="1" odxf="1" dxf="1">
-    <nc r="K96">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C96&amp;""", Flag = """&amp;D96&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H96&amp;", NauticalCrew ="&amp;G96&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B96&amp;""", Region = """&amp;E96&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1258" sId="1" odxf="1" dxf="1">
-    <nc r="K97">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C97&amp;""", Flag = """&amp;D97&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H97&amp;", NauticalCrew ="&amp;G97&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B97&amp;""", Region = """&amp;E97&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1259" sId="1" odxf="1" dxf="1">
-    <nc r="K98">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C98&amp;""", Flag = """&amp;D98&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H98&amp;", NauticalCrew ="&amp;G98&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B98&amp;""", Region = """&amp;E98&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1260" sId="1" odxf="1" dxf="1">
-    <nc r="K99">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C99&amp;""", Flag = """&amp;D99&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H99&amp;", NauticalCrew ="&amp;G99&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B99&amp;""", Region = """&amp;E99&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1261" sId="1" odxf="1" dxf="1">
-    <nc r="K100">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C100&amp;""", Flag = """&amp;D100&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H100&amp;", NauticalCrew ="&amp;G100&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B100&amp;""", Region = """&amp;E100&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1262" sId="1" odxf="1" dxf="1">
-    <nc r="K102">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C102&amp;""", Flag = """&amp;D102&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H102&amp;", NauticalCrew ="&amp;G102&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B102&amp;""", Region = """&amp;E102&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1263" sId="1" odxf="1" dxf="1">
-    <nc r="K104">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C104&amp;""", Flag = """&amp;D104&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H104&amp;", NauticalCrew ="&amp;G104&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B104&amp;""", Region = """&amp;E104&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1264" sId="1" odxf="1" dxf="1">
-    <nc r="K106">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C106&amp;""", Flag = """&amp;D106&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H106&amp;", NauticalCrew ="&amp;G106&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B106&amp;""", Region = """&amp;E106&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1265" sId="1" odxf="1" dxf="1">
-    <nc r="K107">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C107&amp;""", Flag = """&amp;D107&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H107&amp;", NauticalCrew ="&amp;G107&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B107&amp;""", Region = """&amp;E107&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1266" sId="1" odxf="1" dxf="1">
-    <nc r="K108">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C108&amp;""", Flag = """&amp;D108&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H108&amp;", NauticalCrew ="&amp;G108&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B108&amp;""", Region = """&amp;E108&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1267" sId="1" odxf="1" dxf="1">
-    <nc r="K109">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C109&amp;""", Flag = """&amp;D109&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H109&amp;", NauticalCrew ="&amp;G109&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B109&amp;""", Region = """&amp;E109&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1268" sId="1" odxf="1" dxf="1">
-    <nc r="K110">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C110&amp;""", Flag = """&amp;D110&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H110&amp;", NauticalCrew ="&amp;G110&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B110&amp;""", Region = """&amp;E110&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1269" sId="1" odxf="1" dxf="1">
-    <nc r="K111">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C111&amp;""", Flag = """&amp;D111&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H111&amp;", NauticalCrew ="&amp;G111&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B111&amp;""", Region = """&amp;E111&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1270" sId="1" odxf="1" dxf="1">
-    <nc r="K112">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C112&amp;""", Flag = """&amp;D112&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H112&amp;", NauticalCrew ="&amp;G112&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B112&amp;""", Region = """&amp;E112&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1271" sId="1" odxf="1" dxf="1">
-    <nc r="K113">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C113&amp;""", Flag = """&amp;D113&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H113&amp;", NauticalCrew ="&amp;G113&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B113&amp;""", Region = """&amp;E113&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1272" sId="1" odxf="1" dxf="1">
-    <nc r="K114">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C114&amp;""", Flag = """&amp;D114&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H114&amp;", NauticalCrew ="&amp;G114&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B114&amp;""", Region = """&amp;E114&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1273" sId="1" odxf="1" dxf="1">
-    <nc r="K115">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C115&amp;""", Flag = """&amp;D115&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H115&amp;", NauticalCrew ="&amp;G115&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B115&amp;""", Region = """&amp;E115&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1274" sId="1" odxf="1" dxf="1">
-    <nc r="K116">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C116&amp;""", Flag = """&amp;D116&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H116&amp;", NauticalCrew ="&amp;G116&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B116&amp;""", Region = """&amp;E116&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1275" sId="1" odxf="1" dxf="1">
-    <nc r="K117">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C117&amp;""", Flag = """&amp;D117&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H117&amp;", NauticalCrew ="&amp;G117&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B117&amp;""", Region = """&amp;E117&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1276" sId="1" odxf="1" dxf="1">
-    <nc r="K118">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C118&amp;""", Flag = """&amp;D118&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H118&amp;", NauticalCrew ="&amp;G118&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B118&amp;""", Region = """&amp;E118&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1277" sId="1" odxf="1" dxf="1">
-    <nc r="K120">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C120&amp;""", Flag = """&amp;D120&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H120&amp;", NauticalCrew ="&amp;G120&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B120&amp;""", Region = """&amp;E120&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1278" sId="1" odxf="1" dxf="1">
-    <nc r="K121">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C121&amp;""", Flag = """&amp;D121&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H121&amp;", NauticalCrew ="&amp;G121&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B121&amp;""", Region = """&amp;E121&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1279" sId="1" odxf="1" dxf="1">
-    <nc r="K122">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C122&amp;""", Flag = """&amp;D122&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H122&amp;", NauticalCrew ="&amp;G122&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B122&amp;""", Region = """&amp;E122&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1280" sId="1" odxf="1" dxf="1">
-    <nc r="K123">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C123&amp;""", Flag = """&amp;D123&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H123&amp;", NauticalCrew ="&amp;G123&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B123&amp;""", Region = """&amp;E123&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1281" sId="1" odxf="1" dxf="1">
-    <nc r="K124">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C124&amp;""", Flag = """&amp;D124&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H124&amp;", NauticalCrew ="&amp;G124&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B124&amp;""", Region = """&amp;E124&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1282" sId="1" odxf="1" dxf="1">
-    <nc r="K125">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C125&amp;""", Flag = """&amp;D125&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H125&amp;", NauticalCrew ="&amp;G125&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B125&amp;""", Region = """&amp;E125&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1283" sId="1" odxf="1" dxf="1">
-    <nc r="K126">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C126&amp;""", Flag = """&amp;D126&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H126&amp;", NauticalCrew ="&amp;G126&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B126&amp;""", Region = """&amp;E126&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1284" sId="1" odxf="1" dxf="1">
-    <nc r="K127">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C127&amp;""", Flag = """&amp;D127&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H127&amp;", NauticalCrew ="&amp;G127&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B127&amp;""", Region = """&amp;E127&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1285" sId="1" odxf="1" dxf="1">
-    <nc r="K128">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C128&amp;""", Flag = """&amp;D128&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H128&amp;", NauticalCrew ="&amp;G128&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B128&amp;""", Region = """&amp;E128&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1286" sId="1" odxf="1" dxf="1">
-    <nc r="K129">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C129&amp;""", Flag = """&amp;D129&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H129&amp;", NauticalCrew ="&amp;G129&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B129&amp;""", Region = """&amp;E129&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1287" sId="1" odxf="1" dxf="1">
-    <nc r="K131">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C131&amp;""", Flag = """&amp;D131&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H131&amp;", NauticalCrew ="&amp;G131&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B131&amp;""", Region = """&amp;E131&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1288" sId="1" odxf="1" dxf="1">
-    <nc r="K133">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C133&amp;""", Flag = """&amp;D133&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H133&amp;", NauticalCrew ="&amp;G133&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B133&amp;""", Region = """&amp;E133&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1289" sId="1" odxf="1" dxf="1">
-    <nc r="K134">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C134&amp;""", Flag = """&amp;D134&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H134&amp;", NauticalCrew ="&amp;G134&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B134&amp;""", Region = """&amp;E134&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1290" sId="1" odxf="1" dxf="1">
-    <nc r="K135">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C135&amp;""", Flag = """&amp;D135&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H135&amp;", NauticalCrew ="&amp;G135&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B135&amp;""", Region = """&amp;E135&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1291" sId="1" odxf="1" dxf="1">
-    <nc r="K136">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C136&amp;""", Flag = """&amp;D136&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H136&amp;", NauticalCrew ="&amp;G136&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B136&amp;""", Region = """&amp;E136&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1292" sId="1" odxf="1" dxf="1">
-    <nc r="K137">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C137&amp;""", Flag = """&amp;D137&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H137&amp;", NauticalCrew ="&amp;G137&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B137&amp;""", Region = """&amp;E137&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1293" sId="1" odxf="1" dxf="1">
-    <nc r="K138">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C138&amp;""", Flag = """&amp;D138&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H138&amp;", NauticalCrew ="&amp;G138&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B138&amp;""", Region = """&amp;E138&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1294" sId="1" odxf="1" dxf="1">
-    <nc r="K139">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C139&amp;""", Flag = """&amp;D139&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H139&amp;", NauticalCrew ="&amp;G139&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B139&amp;""", Region = """&amp;E139&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1295" sId="1" odxf="1" dxf="1">
-    <nc r="K140">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C140&amp;""", Flag = """&amp;D140&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H140&amp;", NauticalCrew ="&amp;G140&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B140&amp;""", Region = """&amp;E140&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1296" sId="1" odxf="1" dxf="1">
-    <nc r="K141">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C141&amp;""", Flag = """&amp;D141&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H141&amp;", NauticalCrew ="&amp;G141&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B141&amp;""", Region = """&amp;E141&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1297" sId="1" odxf="1" dxf="1">
-    <nc r="K142">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C142&amp;""", Flag = """&amp;D142&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H142&amp;", NauticalCrew ="&amp;G142&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B142&amp;""", Region = """&amp;E142&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1298" sId="1" odxf="1" dxf="1">
-    <nc r="K144">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C144&amp;""", Flag = """&amp;D144&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H144&amp;", NauticalCrew ="&amp;G144&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B144&amp;""", Region = """&amp;E144&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1299" sId="1" odxf="1" dxf="1">
-    <nc r="K145">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C145&amp;""", Flag = """&amp;D145&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H145&amp;", NauticalCrew ="&amp;G145&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B145&amp;""", Region = """&amp;E145&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1300" sId="1" odxf="1" dxf="1">
-    <nc r="K146">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C146&amp;""", Flag = """&amp;D146&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H146&amp;", NauticalCrew ="&amp;G146&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B146&amp;""", Region = """&amp;E146&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1301" sId="1" odxf="1" dxf="1">
-    <nc r="K148">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C148&amp;""", Flag = """&amp;D148&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H148&amp;", NauticalCrew ="&amp;G148&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B148&amp;""", Region = """&amp;E148&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1302" sId="1" odxf="1" dxf="1">
-    <nc r="K150">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C150&amp;""", Flag = """&amp;D150&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H150&amp;", NauticalCrew ="&amp;G150&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B150&amp;""", Region = """&amp;E150&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1303" sId="1" odxf="1" dxf="1">
-    <nc r="K151">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C151&amp;""", Flag = """&amp;D151&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H151&amp;", NauticalCrew ="&amp;G151&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B151&amp;""", Region = """&amp;E151&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1304" sId="1" odxf="1" dxf="1">
-    <nc r="K152">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C152&amp;""", Flag = """&amp;D152&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H152&amp;", NauticalCrew ="&amp;G152&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B152&amp;""", Region = """&amp;E152&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1305" sId="1" odxf="1" dxf="1">
-    <nc r="K153">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C153&amp;""", Flag = """&amp;D153&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H153&amp;", NauticalCrew ="&amp;G153&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B153&amp;""", Region = """&amp;E153&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1306" sId="1" odxf="1" dxf="1">
-    <nc r="K154">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C154&amp;""", Flag = """&amp;D154&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H154&amp;", NauticalCrew ="&amp;G154&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B154&amp;""", Region = """&amp;E154&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1307" sId="1" odxf="1" dxf="1">
-    <nc r="K155">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C155&amp;""", Flag = """&amp;D155&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H155&amp;", NauticalCrew ="&amp;G155&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B155&amp;""", Region = """&amp;E155&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1308" sId="1" odxf="1" dxf="1">
-    <nc r="K156">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C156&amp;""", Flag = """&amp;D156&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H156&amp;", NauticalCrew ="&amp;G156&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B156&amp;""", Region = """&amp;E156&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1309" sId="1" odxf="1" dxf="1">
-    <nc r="K157">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C157&amp;""", Flag = """&amp;D157&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H157&amp;", NauticalCrew ="&amp;G157&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B157&amp;""", Region = """&amp;E157&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1310" sId="1" odxf="1" dxf="1">
-    <nc r="K158">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C158&amp;""", Flag = """&amp;D158&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H158&amp;", NauticalCrew ="&amp;G158&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B158&amp;""", Region = """&amp;E158&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1311" sId="1" odxf="1" dxf="1">
-    <nc r="K159">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C159&amp;""", Flag = """&amp;D159&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H159&amp;", NauticalCrew ="&amp;G159&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B159&amp;""", Region = """&amp;E159&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1312" sId="1" odxf="1" dxf="1">
-    <nc r="K161">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C161&amp;""", Flag = """&amp;D161&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H161&amp;", NauticalCrew ="&amp;G161&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B161&amp;""", Region = """&amp;E161&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1313" sId="1" odxf="1" dxf="1">
-    <nc r="K163">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C163&amp;""", Flag = """&amp;D163&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H163&amp;", NauticalCrew ="&amp;G163&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B163&amp;""", Region = """&amp;E163&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1314" sId="1" odxf="1" dxf="1">
-    <nc r="K165">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C165&amp;""", Flag = """&amp;D165&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H165&amp;", NauticalCrew ="&amp;G165&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B165&amp;""", Region = """&amp;E165&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1315" sId="1" odxf="1" dxf="1">
-    <nc r="K167">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C167&amp;""", Flag = """&amp;D167&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H167&amp;", NauticalCrew ="&amp;G167&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B167&amp;""", Region = """&amp;E167&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1316" sId="1" odxf="1" dxf="1">
-    <nc r="K168">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C168&amp;""", Flag = """&amp;D168&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H168&amp;", NauticalCrew ="&amp;G168&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B168&amp;""", Region = """&amp;E168&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1317" sId="1" odxf="1" dxf="1">
-    <nc r="K169">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C169&amp;""", Flag = """&amp;D169&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H169&amp;", NauticalCrew ="&amp;G169&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B169&amp;""", Region = """&amp;E169&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1318" sId="1" odxf="1" dxf="1">
-    <nc r="K171">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C171&amp;""", Flag = """&amp;D171&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H171&amp;", NauticalCrew ="&amp;G171&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B171&amp;""", Region = """&amp;E171&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1319" sId="1" odxf="1" dxf="1">
-    <nc r="K173">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C173&amp;""", Flag = """&amp;D173&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H173&amp;", NauticalCrew ="&amp;G173&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B173&amp;""", Region = """&amp;E173&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1320" sId="1" odxf="1" dxf="1">
-    <nc r="K174">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C174&amp;""", Flag = """&amp;D174&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H174&amp;", NauticalCrew ="&amp;G174&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B174&amp;""", Region = """&amp;E174&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1321" sId="1" odxf="1" dxf="1">
-    <nc r="K175">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C175&amp;""", Flag = """&amp;D175&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H175&amp;", NauticalCrew ="&amp;G175&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B175&amp;""", Region = """&amp;E175&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1322" sId="1" odxf="1" dxf="1">
-    <nc r="K176">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C176&amp;""", Flag = """&amp;D176&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H176&amp;", NauticalCrew ="&amp;G176&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B176&amp;""", Region = """&amp;E176&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1323" sId="1" odxf="1" dxf="1">
-    <nc r="K177">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C177&amp;""", Flag = """&amp;D177&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H177&amp;", NauticalCrew ="&amp;G177&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B177&amp;""", Region = """&amp;E177&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1324" sId="1" odxf="1" dxf="1">
-    <nc r="K178">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C178&amp;""", Flag = """&amp;D178&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H178&amp;", NauticalCrew ="&amp;G178&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B178&amp;""", Region = """&amp;E178&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1325" sId="1" odxf="1" dxf="1">
-    <nc r="K179">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C179&amp;""", Flag = """&amp;D179&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H179&amp;", NauticalCrew ="&amp;G179&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B179&amp;""", Region = """&amp;E179&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1326" sId="1" odxf="1" dxf="1">
-    <nc r="K180">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C180&amp;""", Flag = """&amp;D180&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H180&amp;", NauticalCrew ="&amp;G180&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B180&amp;""", Region = """&amp;E180&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1327" sId="1" odxf="1" dxf="1">
-    <nc r="K181">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C181&amp;""", Flag = """&amp;D181&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H181&amp;", NauticalCrew ="&amp;G181&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B181&amp;""", Region = """&amp;E181&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1328" sId="1" odxf="1" dxf="1">
-    <nc r="K182">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C182&amp;""", Flag = """&amp;D182&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H182&amp;", NauticalCrew ="&amp;G182&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B182&amp;""", Region = """&amp;E182&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1329" sId="1" odxf="1" dxf="1">
-    <nc r="K183">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C183&amp;""", Flag = """&amp;D183&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H183&amp;", NauticalCrew ="&amp;G183&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B183&amp;""", Region = """&amp;E183&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1330" sId="1" odxf="1" dxf="1">
-    <nc r="K184">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C184&amp;""", Flag = """&amp;D184&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H184&amp;", NauticalCrew ="&amp;G184&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B184&amp;""", Region = """&amp;E184&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1331" sId="1" odxf="1" dxf="1">
-    <nc r="K185">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C185&amp;""", Flag = """&amp;D185&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H185&amp;", NauticalCrew ="&amp;G185&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B185&amp;""", Region = """&amp;E185&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1332" sId="1" odxf="1" dxf="1">
-    <nc r="K186">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C186&amp;""", Flag = """&amp;D186&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H186&amp;", NauticalCrew ="&amp;G186&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B186&amp;""", Region = """&amp;E186&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1333" sId="1" odxf="1" dxf="1">
-    <nc r="K187">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C187&amp;""", Flag = """&amp;D187&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H187&amp;", NauticalCrew ="&amp;G187&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B187&amp;""", Region = """&amp;E187&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1334" sId="1" odxf="1" dxf="1">
-    <nc r="K188">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C188&amp;""", Flag = """&amp;D188&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H188&amp;", NauticalCrew ="&amp;G188&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B188&amp;""", Region = """&amp;E188&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1335" sId="1" odxf="1" dxf="1">
-    <nc r="K189">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C189&amp;""", Flag = """&amp;D189&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H189&amp;", NauticalCrew ="&amp;G189&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B189&amp;""", Region = """&amp;E189&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1336" sId="1" odxf="1" dxf="1">
-    <nc r="K190">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C190&amp;""", Flag = """&amp;D190&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H190&amp;", NauticalCrew ="&amp;G190&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B190&amp;""", Region = """&amp;E190&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1337" sId="1" odxf="1" dxf="1">
-    <nc r="K192">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C192&amp;""", Flag = """&amp;D192&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H192&amp;", NauticalCrew ="&amp;G192&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B192&amp;""", Region = """&amp;E192&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1338" sId="1" odxf="1" dxf="1">
-    <nc r="K193">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C193&amp;""", Flag = """&amp;D193&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H193&amp;", NauticalCrew ="&amp;G193&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B193&amp;""", Region = """&amp;E193&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1339" sId="1" odxf="1" dxf="1">
-    <nc r="K195">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C195&amp;""", Flag = """&amp;D195&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H195&amp;", NauticalCrew ="&amp;G195&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B195&amp;""", Region = """&amp;E195&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1340" sId="1" odxf="1" dxf="1">
-    <nc r="K196">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C196&amp;""", Flag = """&amp;D196&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H196&amp;", NauticalCrew ="&amp;G196&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B196&amp;""", Region = """&amp;E196&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1341" sId="1" odxf="1" dxf="1">
-    <nc r="K197">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C197&amp;""", Flag = """&amp;D197&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H197&amp;", NauticalCrew ="&amp;G197&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B197&amp;""", Region = """&amp;E197&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1342" sId="1" odxf="1" dxf="1">
-    <nc r="K198">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C198&amp;""", Flag = """&amp;D198&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H198&amp;", NauticalCrew ="&amp;G198&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B198&amp;""", Region = """&amp;E198&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1343" sId="1" odxf="1" dxf="1">
-    <nc r="K199">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C199&amp;""", Flag = """&amp;D199&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H199&amp;", NauticalCrew ="&amp;G199&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B199&amp;""", Region = """&amp;E199&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1344" sId="1" odxf="1" dxf="1">
-    <nc r="K200">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C200&amp;""", Flag = """&amp;D200&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H200&amp;", NauticalCrew ="&amp;G200&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B200&amp;""", Region = """&amp;E200&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1345" sId="1" odxf="1" dxf="1">
-    <nc r="K201">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C201&amp;""", Flag = """&amp;D201&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H201&amp;", NauticalCrew ="&amp;G201&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B201&amp;""", Region = """&amp;E201&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1346" sId="1" odxf="1" dxf="1">
-    <nc r="K202">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C202&amp;""", Flag = """&amp;D202&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H202&amp;", NauticalCrew ="&amp;G202&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B202&amp;""", Region = """&amp;E202&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1347" sId="1" odxf="1" dxf="1">
-    <nc r="K203">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C203&amp;""", Flag = """&amp;D203&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H203&amp;", NauticalCrew ="&amp;G203&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B203&amp;""", Region = """&amp;E203&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1348" sId="1" odxf="1" dxf="1">
-    <nc r="K204">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C204&amp;""", Flag = """&amp;D204&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H204&amp;", NauticalCrew ="&amp;G204&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B204&amp;""", Region = """&amp;E204&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1349" sId="1" odxf="1" dxf="1">
-    <nc r="K205">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C205&amp;""", Flag = """&amp;D205&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H205&amp;", NauticalCrew ="&amp;G205&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B205&amp;""", Region = """&amp;E205&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1350" sId="1" odxf="1" dxf="1">
-    <nc r="K206">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C206&amp;""", Flag = """&amp;D206&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H206&amp;", NauticalCrew ="&amp;G206&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B206&amp;""", Region = """&amp;E206&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1351" sId="1" odxf="1" dxf="1">
-    <nc r="K207">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C207&amp;""", Flag = """&amp;D207&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H207&amp;", NauticalCrew ="&amp;G207&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B207&amp;""", Region = """&amp;E207&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1352" sId="1" odxf="1" dxf="1">
-    <nc r="K208">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C208&amp;""", Flag = """&amp;D208&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H208&amp;", NauticalCrew ="&amp;G208&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B208&amp;""", Region = """&amp;E208&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1353" sId="1" odxf="1" dxf="1">
-    <nc r="K209">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C209&amp;""", Flag = """&amp;D209&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H209&amp;", NauticalCrew ="&amp;G209&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B209&amp;""", Region = """&amp;E209&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1354" sId="1" odxf="1" dxf="1">
-    <nc r="K210">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C210&amp;""", Flag = """&amp;D210&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H210&amp;", NauticalCrew ="&amp;G210&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B210&amp;""", Region = """&amp;E210&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1355" sId="1" odxf="1" dxf="1">
-    <nc r="K211">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C211&amp;""", Flag = """&amp;D211&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H211&amp;", NauticalCrew ="&amp;G211&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B211&amp;""", Region = """&amp;E211&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1356" sId="1" odxf="1" dxf="1">
-    <nc r="K212">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C212&amp;""", Flag = """&amp;D212&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H212&amp;", NauticalCrew ="&amp;G212&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B212&amp;""", Region = """&amp;E212&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1357" sId="1" odxf="1" dxf="1">
-    <nc r="K213">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C213&amp;""", Flag = """&amp;D213&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H213&amp;", NauticalCrew ="&amp;G213&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B213&amp;""", Region = """&amp;E213&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1358" sId="1" odxf="1" dxf="1">
-    <nc r="K214">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C214&amp;""", Flag = """&amp;D214&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H214&amp;", NauticalCrew ="&amp;G214&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B214&amp;""", Region = """&amp;E214&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1359" sId="1" odxf="1" dxf="1">
-    <nc r="K215">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C215&amp;""", Flag = """&amp;D215&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H215&amp;", NauticalCrew ="&amp;G215&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B215&amp;""", Region = """&amp;E215&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1360" sId="1" odxf="1" dxf="1">
-    <nc r="K216">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C216&amp;""", Flag = """&amp;D216&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H216&amp;", NauticalCrew ="&amp;G216&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B216&amp;""", Region = """&amp;E216&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1361" sId="1" odxf="1" dxf="1">
-    <nc r="K217">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C217&amp;""", Flag = """&amp;D217&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H217&amp;", NauticalCrew ="&amp;G217&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B217&amp;""", Region = """&amp;E217&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1362" sId="1" odxf="1" dxf="1">
-    <nc r="K218">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C218&amp;""", Flag = """&amp;D218&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H218&amp;", NauticalCrew ="&amp;G218&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B218&amp;""", Region = """&amp;E218&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1363" sId="1" odxf="1" dxf="1">
-    <nc r="K219">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C219&amp;""", Flag = """&amp;D219&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H219&amp;", NauticalCrew ="&amp;G219&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B219&amp;""", Region = """&amp;E219&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1364" sId="1" odxf="1" dxf="1">
-    <nc r="K220">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C220&amp;""", Flag = """&amp;D220&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H220&amp;", NauticalCrew ="&amp;G220&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B220&amp;""", Region = """&amp;E220&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1365" sId="1" odxf="1" dxf="1">
-    <nc r="K221">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C221&amp;""", Flag = """&amp;D221&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H221&amp;", NauticalCrew ="&amp;G221&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B221&amp;""", Region = """&amp;E221&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1366" sId="1" odxf="1" dxf="1">
-    <nc r="K222">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C222&amp;""", Flag = """&amp;D222&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H222&amp;", NauticalCrew ="&amp;G222&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B222&amp;""", Region = """&amp;E222&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1367" sId="1" odxf="1" dxf="1">
-    <nc r="K223">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C223&amp;""", Flag = """&amp;D223&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H223&amp;", NauticalCrew ="&amp;G223&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B223&amp;""", Region = """&amp;E223&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1368" sId="1" odxf="1" dxf="1">
-    <nc r="K224">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C224&amp;""", Flag = """&amp;D224&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H224&amp;", NauticalCrew ="&amp;G224&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B224&amp;""", Region = """&amp;E224&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1369" sId="1" odxf="1" dxf="1">
-    <nc r="K225">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C225&amp;""", Flag = """&amp;D225&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H225&amp;", NauticalCrew ="&amp;G225&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B225&amp;""", Region = """&amp;E225&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1370" sId="1" odxf="1" dxf="1">
-    <nc r="K227">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C227&amp;""", Flag = """&amp;D227&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H227&amp;", NauticalCrew ="&amp;G227&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B227&amp;""", Region = """&amp;E227&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1371" sId="1" odxf="1" dxf="1">
-    <nc r="K228">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C228&amp;""", Flag = """&amp;D228&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H228&amp;", NauticalCrew ="&amp;G228&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B228&amp;""", Region = """&amp;E228&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1372" sId="1" odxf="1" dxf="1">
-    <nc r="K230">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C230&amp;""", Flag = """&amp;D230&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H230&amp;", NauticalCrew ="&amp;G230&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B230&amp;""", Region = """&amp;E230&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1373" sId="1" odxf="1" dxf="1">
-    <nc r="K231">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C231&amp;""", Flag = """&amp;D231&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H231&amp;", NauticalCrew ="&amp;G231&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B231&amp;""", Region = """&amp;E231&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1374" sId="1" odxf="1" dxf="1">
-    <nc r="K232">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C232&amp;""", Flag = """&amp;D232&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H232&amp;", NauticalCrew ="&amp;G232&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B232&amp;""", Region = """&amp;E232&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1375" sId="1" odxf="1" dxf="1">
-    <nc r="K233">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C233&amp;""", Flag = """&amp;D233&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H233&amp;", NauticalCrew ="&amp;G233&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B233&amp;""", Region = """&amp;E233&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1376" sId="1" odxf="1" dxf="1">
-    <nc r="K234">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C234&amp;""", Flag = """&amp;D234&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H234&amp;", NauticalCrew ="&amp;G234&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B234&amp;""", Region = """&amp;E234&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1377" sId="1" odxf="1" dxf="1">
-    <nc r="K235">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C235&amp;""", Flag = """&amp;D235&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H235&amp;", NauticalCrew ="&amp;G235&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B235&amp;""", Region = """&amp;E235&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1378" sId="1" odxf="1" dxf="1">
-    <nc r="K237">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C237&amp;""", Flag = """&amp;D237&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H237&amp;", NauticalCrew ="&amp;G237&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B237&amp;""", Region = """&amp;E237&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1379" sId="1" odxf="1" dxf="1">
-    <nc r="K238">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C238&amp;""", Flag = """&amp;D238&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H238&amp;", NauticalCrew ="&amp;G238&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B238&amp;""", Region = """&amp;E238&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1380" sId="1" odxf="1" dxf="1">
-    <nc r="K240">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C240&amp;""", Flag = """&amp;D240&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H240&amp;", NauticalCrew ="&amp;G240&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B240&amp;""", Region = """&amp;E240&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1381" sId="1" odxf="1" dxf="1">
-    <nc r="K241">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C241&amp;""", Flag = """&amp;D241&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H241&amp;", NauticalCrew ="&amp;G241&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B241&amp;""", Region = """&amp;E241&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1382" sId="1" odxf="1" dxf="1">
-    <nc r="K242">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C242&amp;""", Flag = """&amp;D242&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H242&amp;", NauticalCrew ="&amp;G242&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B242&amp;""", Region = """&amp;E242&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1383" sId="1" odxf="1" dxf="1">
-    <nc r="K243">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C243&amp;""", Flag = """&amp;D243&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H243&amp;", NauticalCrew ="&amp;G243&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B243&amp;""", Region = """&amp;E243&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1384" sId="1" odxf="1" dxf="1">
-    <nc r="K244">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C244&amp;""", Flag = """&amp;D244&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H244&amp;", NauticalCrew ="&amp;G244&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B244&amp;""", Region = """&amp;E244&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1385" sId="1" odxf="1" dxf="1">
-    <nc r="K245">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C245&amp;""", Flag = """&amp;D245&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H245&amp;", NauticalCrew ="&amp;G245&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B245&amp;""", Region = """&amp;E245&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1386" sId="1" odxf="1" dxf="1">
-    <nc r="K246">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C246&amp;""", Flag = """&amp;D246&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H246&amp;", NauticalCrew ="&amp;G246&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B246&amp;""", Region = """&amp;E246&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1387" sId="1" odxf="1" dxf="1">
-    <nc r="K247">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C247&amp;""", Flag = """&amp;D247&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H247&amp;", NauticalCrew ="&amp;G247&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B247&amp;""", Region = """&amp;E247&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1388" sId="1" odxf="1" dxf="1">
-    <nc r="K248">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C248&amp;""", Flag = """&amp;D248&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H248&amp;", NauticalCrew ="&amp;G248&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B248&amp;""", Region = """&amp;E248&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1389" sId="1" odxf="1" dxf="1">
-    <nc r="K249">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C249&amp;""", Flag = """&amp;D249&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H249&amp;", NauticalCrew ="&amp;G249&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B249&amp;""", Region = """&amp;E249&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1390" sId="1" odxf="1" dxf="1">
-    <nc r="K250">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C250&amp;""", Flag = """&amp;D250&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H250&amp;", NauticalCrew ="&amp;G250&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B250&amp;""", Region = """&amp;E250&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1391" sId="1" odxf="1" dxf="1">
-    <nc r="K251">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C251&amp;""", Flag = """&amp;D251&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H251&amp;", NauticalCrew ="&amp;G251&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B251&amp;""", Region = """&amp;E251&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1392" sId="1" odxf="1" dxf="1">
-    <nc r="K252">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C252&amp;""", Flag = """&amp;D252&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H252&amp;", NauticalCrew ="&amp;G252&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B252&amp;""", Region = """&amp;E252&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1393" sId="1" odxf="1" dxf="1">
-    <nc r="K253">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C253&amp;""", Flag = """&amp;D253&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H253&amp;", NauticalCrew ="&amp;G253&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B253&amp;""", Region = """&amp;E253&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1394" sId="1" odxf="1" dxf="1">
-    <nc r="K254">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C254&amp;""", Flag = """&amp;D254&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H254&amp;", NauticalCrew ="&amp;G254&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B254&amp;""", Region = """&amp;E254&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1395" sId="1" odxf="1" dxf="1">
-    <nc r="K255">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C255&amp;""", Flag = """&amp;D255&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H255&amp;", NauticalCrew ="&amp;G255&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B255&amp;""", Region = """&amp;E255&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1396" sId="1" odxf="1" dxf="1">
-    <nc r="K256">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C256&amp;""", Flag = """&amp;D256&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H256&amp;", NauticalCrew ="&amp;G256&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B256&amp;""", Region = """&amp;E256&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1397" sId="1" odxf="1" dxf="1">
-    <nc r="K257">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C257&amp;""", Flag = """&amp;D257&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H257&amp;", NauticalCrew ="&amp;G257&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B257&amp;""", Region = """&amp;E257&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1398" sId="1" odxf="1" dxf="1">
-    <nc r="K259">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C259&amp;""", Flag = """&amp;D259&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H259&amp;", NauticalCrew ="&amp;G259&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B259&amp;""", Region = """&amp;E259&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1399" sId="1" odxf="1" dxf="1">
-    <nc r="K260">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C260&amp;""", Flag = """&amp;D260&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H260&amp;", NauticalCrew ="&amp;G260&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B260&amp;""", Region = """&amp;E260&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1400" sId="1" odxf="1" dxf="1">
-    <nc r="K262">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C262&amp;""", Flag = """&amp;D262&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H262&amp;", NauticalCrew ="&amp;G262&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B262&amp;""", Region = """&amp;E262&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1401" sId="1" odxf="1" dxf="1">
-    <nc r="K264">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C264&amp;""", Flag = """&amp;D264&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H264&amp;", NauticalCrew ="&amp;G264&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B264&amp;""", Region = """&amp;E264&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1402" sId="1" odxf="1" dxf="1">
-    <nc r="K266">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C266&amp;""", Flag = """&amp;D266&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H266&amp;", NauticalCrew ="&amp;G266&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B266&amp;""", Region = """&amp;E266&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1403" sId="1" odxf="1" dxf="1">
-    <nc r="K267">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C267&amp;""", Flag = """&amp;D267&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H267&amp;", NauticalCrew ="&amp;G267&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B267&amp;""", Region = """&amp;E267&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1404" sId="1" odxf="1" dxf="1">
-    <nc r="K268">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C268&amp;""", Flag = """&amp;D268&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H268&amp;", NauticalCrew ="&amp;G268&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B268&amp;""", Region = """&amp;E268&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1405" sId="1" odxf="1" dxf="1">
-    <nc r="K269">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C269&amp;""", Flag = """&amp;D269&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H269&amp;", NauticalCrew ="&amp;G269&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B269&amp;""", Region = """&amp;E269&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1406" sId="1" odxf="1" dxf="1">
-    <nc r="K271">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C271&amp;""", Flag = """&amp;D271&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H271&amp;", NauticalCrew ="&amp;G271&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B271&amp;""", Region = """&amp;E271&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1407" sId="1" odxf="1" dxf="1">
-    <nc r="K273">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C273&amp;""", Flag = """&amp;D273&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H273&amp;", NauticalCrew ="&amp;G273&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B273&amp;""", Region = """&amp;E273&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1408" sId="1" odxf="1" dxf="1">
-    <nc r="K274">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C274&amp;""", Flag = """&amp;D274&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H274&amp;", NauticalCrew ="&amp;G274&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B274&amp;""", Region = """&amp;E274&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1409" sId="1" odxf="1" dxf="1">
-    <nc r="K275">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C275&amp;""", Flag = """&amp;D275&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H275&amp;", NauticalCrew ="&amp;G275&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B275&amp;""", Region = """&amp;E275&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1410" sId="1" odxf="1" dxf="1">
-    <nc r="K276">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C276&amp;""", Flag = """&amp;D276&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H276&amp;", NauticalCrew ="&amp;G276&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B276&amp;""", Region = """&amp;E276&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1411" sId="1" odxf="1" dxf="1">
-    <nc r="K277">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C277&amp;""", Flag = """&amp;D277&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H277&amp;", NauticalCrew ="&amp;G277&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B277&amp;""", Region = """&amp;E277&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1412" sId="1" odxf="1" dxf="1">
-    <nc r="K278">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C278&amp;""", Flag = """&amp;D278&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H278&amp;", NauticalCrew ="&amp;G278&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B278&amp;""", Region = """&amp;E278&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1413" sId="1" odxf="1" dxf="1">
-    <nc r="K279">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C279&amp;""", Flag = """&amp;D279&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H279&amp;", NauticalCrew ="&amp;G279&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B279&amp;""", Region = """&amp;E279&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1414" sId="1" odxf="1" dxf="1">
-    <nc r="K280">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C280&amp;""", Flag = """&amp;D280&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H280&amp;", NauticalCrew ="&amp;G280&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B280&amp;""", Region = """&amp;E280&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1415" sId="1" odxf="1" dxf="1">
-    <nc r="K281">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C281&amp;""", Flag = """&amp;D281&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H281&amp;", NauticalCrew ="&amp;G281&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B281&amp;""", Region = """&amp;E281&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1416" sId="1" odxf="1" dxf="1">
-    <nc r="K282">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C282&amp;""", Flag = """&amp;D282&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H282&amp;", NauticalCrew ="&amp;G282&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B282&amp;""", Region = """&amp;E282&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1417" sId="1" odxf="1" dxf="1">
-    <nc r="K283">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C283&amp;""", Flag = """&amp;D283&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H283&amp;", NauticalCrew ="&amp;G283&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B283&amp;""", Region = """&amp;E283&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1418" sId="1" odxf="1" dxf="1">
-    <nc r="K284">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C284&amp;""", Flag = """&amp;D284&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H284&amp;", NauticalCrew ="&amp;G284&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B284&amp;""", Region = """&amp;E284&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1419" sId="1" odxf="1" dxf="1">
-    <nc r="K285">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C285&amp;""", Flag = """&amp;D285&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H285&amp;", NauticalCrew ="&amp;G285&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B285&amp;""", Region = """&amp;E285&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1420" sId="1" odxf="1" dxf="1">
-    <nc r="K286">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C286&amp;""", Flag = """&amp;D286&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H286&amp;", NauticalCrew ="&amp;G286&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B286&amp;""", Region = """&amp;E286&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1421" sId="1" odxf="1" dxf="1">
-    <nc r="K287">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C287&amp;""", Flag = """&amp;D287&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H287&amp;", NauticalCrew ="&amp;G287&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B287&amp;""", Region = """&amp;E287&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1422" sId="1" odxf="1" dxf="1">
-    <nc r="K288">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C288&amp;""", Flag = """&amp;D288&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H288&amp;", NauticalCrew ="&amp;G288&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B288&amp;""", Region = """&amp;E288&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1423" sId="1" odxf="1" dxf="1">
-    <nc r="K289">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C289&amp;""", Flag = """&amp;D289&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H289&amp;", NauticalCrew ="&amp;G289&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B289&amp;""", Region = """&amp;E289&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1424" sId="1" odxf="1" dxf="1">
-    <nc r="K290">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C290&amp;""", Flag = """&amp;D290&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H290&amp;", NauticalCrew ="&amp;G290&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B290&amp;""", Region = """&amp;E290&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1425" sId="1" odxf="1" dxf="1">
-    <nc r="K291">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C291&amp;""", Flag = """&amp;D291&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H291&amp;", NauticalCrew ="&amp;G291&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B291&amp;""", Region = """&amp;E291&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1426" sId="1" odxf="1" dxf="1">
-    <nc r="K293">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C293&amp;""", Flag = """&amp;D293&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H293&amp;", NauticalCrew ="&amp;G293&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B293&amp;""", Region = """&amp;E293&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1427" sId="1" odxf="1" dxf="1">
-    <nc r="K294">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C294&amp;""", Flag = """&amp;D294&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H294&amp;", NauticalCrew ="&amp;G294&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B294&amp;""", Region = """&amp;E294&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1428" sId="1" odxf="1" dxf="1">
-    <nc r="K295">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C295&amp;""", Flag = """&amp;D295&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H295&amp;", NauticalCrew ="&amp;G295&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B295&amp;""", Region = """&amp;E295&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1429" sId="1">
-    <oc r="K16">
-      <f>"company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </oc>
-    <nc r="K16">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1430" sId="1" xfDxf="1" dxf="1">
-    <oc r="K19">
-      <f>"company = new Company() {Name = """&amp; A19 &amp;"""}; "</f>
-    </oc>
-    <nc r="K19">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </nc>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1431" sId="1" xfDxf="1" dxf="1">
-    <oc r="K29">
-      <f>"company = new Company() {Name = """&amp; A29 &amp;"""}; "</f>
-    </oc>
-    <nc r="K29">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </nc>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1432" sId="1" xfDxf="1" dxf="1">
-    <oc r="K31">
-      <f>"company = new Company() {Name = """&amp; A31 &amp;"""}; "</f>
-    </oc>
-    <nc r="K31">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </nc>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1433" sId="1" xfDxf="1" dxf="1">
-    <oc r="K35">
-      <f>"company = new Company() {Name = """&amp; A35 &amp;"""}; "</f>
-    </oc>
-    <nc r="K35">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </nc>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1434" sId="1" xfDxf="1" dxf="1">
-    <oc r="K40">
-      <f>"company = new Company() {Name = """&amp; A40 &amp;"""}; "</f>
-    </oc>
-    <nc r="K40">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </nc>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1435" sId="1" xfDxf="1" dxf="1">
-    <oc r="K42">
-      <f>"company = new Company() {Name = """&amp; A42 &amp;"""}; "</f>
-    </oc>
-    <nc r="K42">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </nc>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1436" sId="1" xfDxf="1" dxf="1">
-    <oc r="K46">
-      <f>"company = new Company() {Name = """&amp; A46 &amp;"""}; "</f>
-    </oc>
-    <nc r="K46">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </nc>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1437" sId="1" xfDxf="1" dxf="1">
-    <oc r="K49">
-      <f>"company = new Company() {Name = """&amp; A49 &amp;"""}; "</f>
-    </oc>
-    <nc r="K49">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </nc>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1438" sId="1" xfDxf="1" dxf="1">
-    <oc r="K52">
-      <f>"company = new Company() {Name = """&amp; A52 &amp;"""}; "</f>
-    </oc>
-    <nc r="K52">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </nc>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1439" sId="1" xfDxf="1" dxf="1">
-    <oc r="K79">
-      <f>"company = new Company() {Name = """&amp; A79 &amp;"""}; "</f>
-    </oc>
-    <nc r="K79">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </nc>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1440" sId="1" xfDxf="1" dxf="1">
-    <oc r="K81">
-      <f>"company = new Company() {Name = """&amp; A81 &amp;"""}; "</f>
-    </oc>
-    <nc r="K81">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </nc>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1441" sId="1" xfDxf="1" dxf="1">
-    <oc r="K87">
-      <f>"company = new Company() {Name = """&amp; A87 &amp;"""}; "</f>
-    </oc>
-    <nc r="K87">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </nc>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1442" sId="1" xfDxf="1" dxf="1">
-    <oc r="K94">
-      <f>"company = new Company() {Name = """&amp; A94 &amp;"""}; "</f>
-    </oc>
-    <nc r="K94">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </nc>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1443" sId="1" xfDxf="1" dxf="1">
-    <oc r="K101">
-      <f>"company = new Company() {Name = """&amp; A101 &amp;"""}; "</f>
-    </oc>
-    <nc r="K101">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </nc>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1444" sId="1" xfDxf="1" dxf="1">
-    <oc r="K103">
-      <f>"company = new Company() {Name = """&amp; A103 &amp;"""}; "</f>
-    </oc>
-    <nc r="K103">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </nc>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1445" sId="1" xfDxf="1" dxf="1">
-    <oc r="K105">
-      <f>"company = new Company() {Name = """&amp; A105 &amp;"""}; "</f>
-    </oc>
-    <nc r="K105">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </nc>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1446" sId="1" xfDxf="1" dxf="1">
-    <oc r="K119">
-      <f>"company = new Company() {Name = """&amp; A119 &amp;"""}; "</f>
-    </oc>
-    <nc r="K119">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </nc>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1447" sId="1" xfDxf="1" dxf="1">
-    <oc r="K130">
-      <f>"company = new Company() {Name = """&amp; A130 &amp;"""}; "</f>
-    </oc>
-    <nc r="K130">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </nc>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1448" sId="1" xfDxf="1" dxf="1">
-    <oc r="K132">
-      <f>"company = new Company() {Name = """&amp; A132 &amp;"""}; "</f>
-    </oc>
-    <nc r="K132">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </nc>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1449" sId="1" xfDxf="1" dxf="1">
-    <oc r="K143">
-      <f>"company = new Company() {Name = """&amp; A143 &amp;"""}; "</f>
-    </oc>
-    <nc r="K143">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </nc>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1450" sId="1" xfDxf="1" dxf="1">
-    <oc r="K147">
-      <f>"company = new Company() {Name = """&amp; A147 &amp;"""}; "</f>
-    </oc>
-    <nc r="K147">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </nc>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1451" sId="1" xfDxf="1" dxf="1">
-    <oc r="K149">
-      <f>"company = new Company() {Name = """&amp; A149 &amp;"""}; "</f>
-    </oc>
-    <nc r="K149">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </nc>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1452" sId="1" xfDxf="1" dxf="1">
-    <oc r="K160">
-      <f>"company = new Company() {Name = """&amp; A160 &amp;"""}; "</f>
-    </oc>
-    <nc r="K160">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </nc>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1453" sId="1" xfDxf="1" dxf="1">
-    <oc r="K162">
-      <f>"company = new Company() {Name = """&amp; A162 &amp;"""}; "</f>
-    </oc>
-    <nc r="K162">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </nc>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1454" sId="1" xfDxf="1" dxf="1">
-    <oc r="K164">
-      <f>"company = new Company() {Name = """&amp; A164 &amp;"""}; "</f>
-    </oc>
-    <nc r="K164">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </nc>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1455" sId="1" xfDxf="1" dxf="1">
-    <oc r="K166">
-      <f>"company = new Company() {Name = """&amp; A166 &amp;"""}; "</f>
-    </oc>
-    <nc r="K166">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </nc>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1456" sId="1" xfDxf="1" dxf="1">
-    <oc r="K170">
-      <f>"company = new Company() {Name = """&amp; A170 &amp;"""}; "</f>
-    </oc>
-    <nc r="K170">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </nc>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1457" sId="1" xfDxf="1" dxf="1">
-    <oc r="K172">
-      <f>"company = new Company() {Name = """&amp; A172 &amp;"""}; "</f>
-    </oc>
-    <nc r="K172">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </nc>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1458" sId="1" xfDxf="1" dxf="1">
-    <oc r="K191">
-      <f>"company = new Company() {Name = """&amp; A191 &amp;"""}; "</f>
-    </oc>
-    <nc r="K191">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </nc>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1459" sId="1" xfDxf="1" dxf="1">
-    <oc r="K194">
-      <f>"company = new Company() {Name = """&amp; A194 &amp;"""}; "</f>
-    </oc>
-    <nc r="K194">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </nc>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1460" sId="1" xfDxf="1" dxf="1">
-    <oc r="K226">
-      <f>"company = new Company() {Name = """&amp; A226 &amp;"""}; "</f>
-    </oc>
-    <nc r="K226">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </nc>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1461" sId="1" xfDxf="1" dxf="1">
-    <oc r="K229">
-      <f>"company = new Company() {Name = """&amp; A229 &amp;"""}; "</f>
-    </oc>
-    <nc r="K229">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </nc>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1462" sId="1" xfDxf="1" dxf="1">
-    <oc r="K236">
-      <f>"company = new Company() {Name = """&amp; A236 &amp;"""}; "</f>
-    </oc>
-    <nc r="K236">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </nc>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1463" sId="1" xfDxf="1" dxf="1">
-    <oc r="K239">
-      <f>"company = new Company() {Name = """&amp; A239 &amp;"""}; "</f>
-    </oc>
-    <nc r="K239">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </nc>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1464" sId="1" xfDxf="1" dxf="1">
-    <oc r="K258">
-      <f>"company = new Company() {Name = """&amp; A258 &amp;"""}; "</f>
-    </oc>
-    <nc r="K258">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </nc>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1465" sId="1" xfDxf="1" dxf="1">
-    <oc r="K261">
-      <f>"company = new Company() {Name = """&amp; A261 &amp;"""}; "</f>
-    </oc>
-    <nc r="K261">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </nc>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1466" sId="1" xfDxf="1" dxf="1">
-    <oc r="K263">
-      <f>"company = new Company() {Name = """&amp; A263 &amp;"""}; "</f>
-    </oc>
-    <nc r="K263">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </nc>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1467" sId="1" xfDxf="1" dxf="1">
-    <oc r="K265">
-      <f>"company = new Company() {Name = """&amp; A265 &amp;"""}; "</f>
-    </oc>
-    <nc r="K265">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </nc>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1468" sId="1" xfDxf="1" dxf="1">
-    <oc r="K270">
-      <f>"company = new Company() {Name = """&amp; A270 &amp;"""}; "</f>
-    </oc>
-    <nc r="K270">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </nc>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1469" sId="1" xfDxf="1" dxf="1">
-    <oc r="K272">
-      <f>"company = new Company() {Name = """&amp; A272 &amp;"""}; "</f>
-    </oc>
-    <nc r="K272">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </nc>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1470" sId="1" xfDxf="1" dxf="1">
-    <oc r="K292">
-      <f>"company = new Company() {Name = """&amp; A292 &amp;"""}; "</f>
-    </oc>
-    <nc r="K292">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </nc>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1471" sId="1" xfDxf="1" dxf="1">
-    <oc r="K296">
-      <f>"company = new Company() {Name = """&amp; A296 &amp;"""}; "</f>
-    </oc>
-    <nc r="K296">
-      <f>"context.Companies.Add(company);context.SaveChanges(); company = new Company() {Name = """&amp; A16 &amp;"""}; "</f>
-    </nc>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1472" sId="1" odxf="1" dxf="1">
-    <nc r="K297">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C297&amp;""", Flag = """&amp;D297&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H297&amp;", NauticalCrew ="&amp;G297&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B297&amp;""", Region = """&amp;E297&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rfmt sheetId="1" xfDxf="1" sqref="K298" start="0" length="0">
-    <dxf/>
-  </rfmt>
-  <rcc rId="1473" sId="1">
-    <nc r="K298">
-      <f>"context.Companies.Add(company);context.SaveChanges();"</f>
-    </nc>
-  </rcc>
-  <rcc rId="1474" sId="1">
-    <nc r="G106">
-      <v>0</v>
-    </nc>
-  </rcc>
-  <rcc rId="1475" sId="1">
-    <nc r="G107">
-      <v>0</v>
-    </nc>
-  </rcc>
-  <rcc rId="1476" sId="1">
-    <nc r="F135">
-      <v>0</v>
-    </nc>
-  </rcc>
-  <rcc rId="1477" sId="1">
-    <nc r="G135">
-      <v>0</v>
-    </nc>
-  </rcc>
-  <rcc rId="1478" sId="1">
-    <nc r="F145">
-      <v>0</v>
-    </nc>
-  </rcc>
-  <rcc rId="1479" sId="1">
-    <nc r="G145">
-      <v>0</v>
-    </nc>
-  </rcc>
-  <rcc rId="1480" sId="1">
-    <nc r="H145">
-      <f>F145-G145</f>
-    </nc>
-  </rcc>
-  <rcc rId="1481" sId="1">
-    <nc r="F146">
-      <v>0</v>
-    </nc>
-  </rcc>
-  <rcc rId="1482" sId="1">
-    <nc r="G146">
-      <v>0</v>
-    </nc>
-  </rcc>
-  <rcc rId="1483" sId="1">
-    <nc r="H146">
-      <f>F146-G146</f>
-    </nc>
-  </rcc>
-  <rcc rId="1484" sId="1">
-    <nc r="H135">
-      <v>0</v>
-    </nc>
-  </rcc>
-  <rfmt sheetId="1" sqref="H135">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rcc rId="1485" sId="1">
-    <nc r="F293">
-      <v>0</v>
-    </nc>
-  </rcc>
-  <rcc rId="1486" sId="1">
-    <nc r="G293">
-      <v>0</v>
-    </nc>
-  </rcc>
-  <rcc rId="1487" sId="1">
-    <nc r="H293">
-      <v>0</v>
-    </nc>
-  </rcc>
-  <rfmt sheetId="1" sqref="H293">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rcc rId="1488" sId="1">
-    <nc r="F41">
-      <v>0</v>
-    </nc>
-  </rcc>
-  <rcc rId="1489" sId="1">
-    <nc r="G41">
-      <v>0</v>
-    </nc>
-  </rcc>
-  <rcc rId="1490" sId="1">
-    <nc r="H41">
-      <v>0</v>
-    </nc>
-  </rcc>
-  <rfmt sheetId="1" sqref="H41">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rcc rId="1491" sId="1">
-    <nc r="G47">
-      <v>0</v>
-    </nc>
-  </rcc>
-  <rcc rId="1492" sId="1">
-    <nc r="G48">
-      <v>0</v>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog1111.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rfmt sheetId="1" sqref="K6" start="0" length="0">
-    <dxf/>
-  </rfmt>
-  <rcc rId="1181" sId="1">
-    <nc r="K6">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C6&amp;""", Flag = """&amp;D6&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H6&amp;", NauticalCrew ="&amp;G6&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B6&amp;""", Region = """&amp;E6&amp;""" } }};"</f>
-    </nc>
-  </rcc>
-  <rcc rId="1182" sId="1" odxf="1" dxf="1">
-    <nc r="K7">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C7&amp;""", Flag = """&amp;D7&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H7&amp;", NauticalCrew ="&amp;G7&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B7&amp;""", Region = """&amp;E7&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1183" sId="1" odxf="1" dxf="1">
-    <nc r="K8">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C8&amp;""", Flag = """&amp;D8&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H8&amp;", NauticalCrew ="&amp;G8&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B8&amp;""", Region = """&amp;E8&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1184" sId="1" odxf="1" dxf="1">
-    <nc r="K9">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C9&amp;""", Flag = """&amp;D9&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H9&amp;", NauticalCrew ="&amp;G9&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B9&amp;""", Region = """&amp;E9&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1185" sId="1" odxf="1" dxf="1">
-    <nc r="K10">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C10&amp;""", Flag = """&amp;D10&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H10&amp;", NauticalCrew ="&amp;G10&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B10&amp;""", Region = """&amp;E10&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1186" sId="1" odxf="1" dxf="1">
-    <nc r="K11">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C11&amp;""", Flag = """&amp;D11&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H11&amp;", NauticalCrew ="&amp;G11&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B11&amp;""", Region = """&amp;E11&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1187" sId="1" odxf="1" dxf="1">
-    <nc r="K12">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C12&amp;""", Flag = """&amp;D12&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H12&amp;", NauticalCrew ="&amp;G12&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B12&amp;""", Region = """&amp;E12&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1188" sId="1" odxf="1" dxf="1">
-    <nc r="K13">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C13&amp;""", Flag = """&amp;D13&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H13&amp;", NauticalCrew ="&amp;G13&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B13&amp;""", Region = """&amp;E13&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1189" sId="1" odxf="1" dxf="1">
-    <nc r="K14">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C14&amp;""", Flag = """&amp;D14&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H14&amp;", NauticalCrew ="&amp;G14&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B14&amp;""", Region = """&amp;E14&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rcc rId="1190" sId="1" odxf="1" dxf="1">
-    <nc r="K15">
-      <f>"company.Ship2Company = new Collection&lt;Ship2Company&gt;() { new Ship2Company() { Company = company, From = new DateTime(1900, 01, 01) , Until = new DateTime(9999, 12, 31), Ship = new Ship() { Eni = """&amp;C15&amp;""", Flag = """&amp;D15&amp;""", Crew = new Collection&lt;Crew&gt;() {new Crew(){HotelStaff = "&amp;H15&amp;", NauticalCrew ="&amp;G15&amp;", From = new DateTime(1900, 01, 01), Until = new DateTime(9999, 12, 31)}}, Name = """&amp;B15&amp;""", Region = """&amp;E15&amp;""" } }};"</f>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog11111.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="1131" sId="1">
-    <oc r="K5">
-      <f>"company = new Company() {Name = ""&amp; A5 &amp;""}; "</f>
-    </oc>
-    <nc r="K5">
-      <f>"company = new Company() {Name = """&amp; A5 &amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1132" sId="1">
-    <oc r="K17">
-      <f>"company = new Company() {Name = ""&amp;A17&amp;""}; "</f>
-    </oc>
-    <nc r="K17">
-      <f>"company = new Company() {Name = """&amp; A17 &amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1133" sId="1">
-    <oc r="K20">
-      <f>"company = new Company() {Name = ""&amp;A17&amp;""}; "</f>
-    </oc>
-    <nc r="K20">
-      <f>"company = new Company() {Name = """&amp; A20 &amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1134" sId="1">
-    <nc r="K30">
-      <f>"company = new Company() {Name = """&amp; A30 &amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1135" sId="1">
-    <nc r="K32">
-      <f>"company = new Company() {Name = """&amp; A32 &amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1136" sId="1">
-    <nc r="K36">
-      <f>"company = new Company() {Name = """&amp; A36 &amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1137" sId="1">
-    <nc r="K41">
-      <f>"company = new Company() {Name = """&amp; A41 &amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1138" sId="1">
-    <nc r="K43">
-      <f>"company = new Company() {Name = """&amp; A43 &amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1139" sId="1">
-    <nc r="K47">
-      <f>"company = new Company() {Name = """&amp; A47 &amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1140" sId="1">
-    <nc r="K50">
-      <f>"company = new Company() {Name = """&amp; A50 &amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1141" sId="1">
-    <nc r="K53">
-      <f>"company = new Company() {Name = """&amp; A53 &amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1142" sId="1">
-    <nc r="K80">
-      <f>"company = new Company() {Name = """&amp; A80 &amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1143" sId="1">
-    <nc r="K82">
-      <f>"company = new Company() {Name = """&amp; A82 &amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1144" sId="1">
-    <nc r="K88">
-      <f>"company = new Company() {Name = """&amp; A88 &amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1145" sId="1">
-    <nc r="K95">
-      <f>"company = new Company() {Name = """&amp; A95 &amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1146" sId="1">
-    <nc r="K102">
-      <f>"company = new Company() {Name = """&amp; A102 &amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1147" sId="1">
-    <nc r="K104">
-      <f>"company = new Company() {Name = """&amp; A104 &amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1148" sId="1">
-    <nc r="K106">
-      <f>"company = new Company() {Name = """&amp; A106 &amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1149" sId="1">
-    <nc r="K120">
-      <f>"company = new Company() {Name = """&amp; A120 &amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1150" sId="1">
-    <nc r="K131">
-      <f>"company = new Company() {Name = """&amp; A131 &amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1151" sId="1">
-    <nc r="K133">
-      <f>"company = new Company() {Name = """&amp; A133 &amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1152" sId="1">
-    <nc r="K144">
-      <f>"company = new Company() {Name = """&amp; A144 &amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1153" sId="1">
-    <nc r="K148">
-      <f>"company = new Company() {Name = """&amp; A148 &amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1154" sId="1">
-    <nc r="K150">
-      <f>"company = new Company() {Name = """&amp; A150 &amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1155" sId="1">
-    <nc r="K161">
-      <f>"company = new Company() {Name = """&amp; A161 &amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1156" sId="1">
-    <nc r="K163">
-      <f>"company = new Company() {Name = """&amp; A163 &amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1157" sId="1">
-    <nc r="K165">
-      <f>"company = new Company() {Name = """&amp; A165 &amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1158" sId="1">
-    <nc r="K167">
-      <f>"company = new Company() {Name = """&amp; A167 &amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1159" sId="1">
-    <nc r="K171">
-      <f>"company = new Company() {Name = """&amp; A171 &amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1160" sId="1">
-    <nc r="K173">
-      <f>"company = new Company() {Name = """&amp; A173 &amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1161" sId="1">
-    <nc r="K192">
-      <f>"company = new Company() {Name = """&amp; A192 &amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1162" sId="1">
-    <nc r="K195">
-      <f>"company = new Company() {Name = """&amp; A195 &amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1163" sId="1">
-    <nc r="K230">
-      <f>"company = new Company() {Name = """&amp; A230 &amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1164" sId="1">
-    <nc r="K233">
-      <f>"company = new Company() {Name = """&amp; A233 &amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1165" sId="1">
-    <nc r="K240">
-      <f>"company = new Company() {Name = """&amp; A240 &amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1166" sId="1">
-    <nc r="K243">
-      <f>"company = new Company() {Name = """&amp; A243 &amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1167" sId="1">
-    <nc r="K262">
-      <f>"company = new Company() {Name = """&amp; A262 &amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1168" sId="1">
-    <nc r="K265">
-      <f>"company = new Company() {Name = """&amp; A265 &amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1169" sId="1">
-    <nc r="K267">
-      <f>"company = new Company() {Name = """&amp; A267 &amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1170" sId="1">
-    <nc r="K269">
-      <f>"company = new Company() {Name = """&amp; A269 &amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1171" sId="1">
-    <nc r="K274">
-      <f>"company = new Company() {Name = """&amp; A274 &amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1172" sId="1">
-    <nc r="K276">
-      <f>"company = new Company() {Name = """&amp; A276 &amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1173" sId="1">
-    <nc r="K296">
-      <f>"company = new Company() {Name = """&amp; A296 &amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1174" sId="1">
-    <nc r="K300">
-      <f>"company = new Company() {Name = """&amp; A300 &amp;"""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1175" sId="1">
-    <oc r="K18">
-      <f>"company = new Company() {Name = ""&amp;A17&amp;""}; "</f>
-    </oc>
-    <nc r="K18"/>
-  </rcc>
-  <rcc rId="1176" sId="1">
-    <oc r="K19">
-      <f>"company = new Company() {Name = ""&amp;A17&amp;""}; "</f>
-    </oc>
-    <nc r="K19"/>
-  </rcc>
-  <rrc rId="1177" sId="1" ref="A16:XFD16" action="deleteRow">
-    <rfmt sheetId="1" xfDxf="1" sqref="A16:XFD16" start="0" length="0"/>
-    <rfmt sheetId="1" sqref="A16" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <color auto="1"/>
-          <name val="Arial"/>
-          <scheme val="none"/>
-        </font>
-        <fill>
-          <patternFill patternType="solid">
-            <bgColor indexed="13"/>
-          </patternFill>
-        </fill>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="B16" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <color auto="1"/>
-          <name val="Arial"/>
-          <scheme val="none"/>
-        </font>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="C16" t="inlineStr">
-        <is>
-          <t>tba</t>
-        </is>
-      </nc>
-      <ndxf>
-        <font>
-          <sz val="10"/>
-          <color auto="1"/>
-          <name val="Arial"/>
-          <scheme val="none"/>
-        </font>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </ndxf>
-    </rcc>
-    <rfmt sheetId="1" sqref="D16" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="E16" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <color auto="1"/>
-          <name val="Arial"/>
-          <scheme val="none"/>
-        </font>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="F16" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="G16" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="I16" start="0" length="0">
-      <dxf>
-        <alignment horizontal="right" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="K16" start="0" length="0">
-      <dxf/>
-    </rfmt>
-    <rfmt sheetId="1" sqref="L16" start="0" length="0">
-      <dxf/>
-    </rfmt>
-    <rfmt sheetId="1" sqref="M16" start="0" length="0">
-      <dxf/>
-    </rfmt>
-  </rrc>
-  <rrc rId="1178" sId="1" ref="A204:XFD204" action="deleteRow">
-    <rfmt sheetId="1" xfDxf="1" sqref="A204:XFD204" start="0" length="0"/>
-    <rfmt sheetId="1" sqref="A204" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <color auto="1"/>
-          <name val="Arial"/>
-          <scheme val="none"/>
-        </font>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="B204" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <color auto="1"/>
-          <name val="Arial"/>
-          <scheme val="none"/>
-        </font>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="C204" t="inlineStr">
-        <is>
-          <t>tba</t>
-        </is>
-      </nc>
-      <ndxf>
-        <font>
-          <sz val="10"/>
-          <color auto="1"/>
-          <name val="Arial"/>
-          <scheme val="none"/>
-        </font>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </ndxf>
-    </rcc>
-    <rfmt sheetId="1" sqref="D204" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="10"/>
-          <color auto="1"/>
-          <name val="Arial"/>
-          <scheme val="none"/>
-        </font>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="E204" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <color auto="1"/>
-          <name val="Arial"/>
-          <scheme val="none"/>
-        </font>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="F204" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="G204" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="I204" start="0" length="0">
-      <dxf>
-        <alignment horizontal="right" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="K204" start="0" length="0">
-      <dxf/>
-    </rfmt>
-    <rfmt sheetId="1" sqref="L204" start="0" length="0">
-      <dxf/>
-    </rfmt>
-    <rfmt sheetId="1" sqref="M204" start="0" length="0">
-      <dxf/>
-    </rfmt>
-  </rrc>
-  <rrc rId="1179" sId="1" ref="A204:XFD204" action="deleteRow">
-    <rfmt sheetId="1" xfDxf="1" sqref="A204:XFD204" start="0" length="0"/>
-    <rfmt sheetId="1" sqref="A204" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <color auto="1"/>
-          <name val="Arial"/>
-          <scheme val="none"/>
-        </font>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="B204" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <color auto="1"/>
-          <name val="Arial"/>
-          <scheme val="none"/>
-        </font>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="C204" t="inlineStr">
-        <is>
-          <t>tba</t>
-        </is>
-      </nc>
-      <ndxf>
-        <font>
-          <sz val="10"/>
-          <color auto="1"/>
-          <name val="Arial"/>
-          <scheme val="none"/>
-        </font>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </ndxf>
-    </rcc>
-    <rfmt sheetId="1" sqref="D204" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="10"/>
-          <color auto="1"/>
-          <name val="Arial"/>
-          <scheme val="none"/>
-        </font>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="E204" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <color auto="1"/>
-          <name val="Arial"/>
-          <scheme val="none"/>
-        </font>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="F204" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="G204" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="I204" start="0" length="0">
-      <dxf>
-        <alignment horizontal="right" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="K204" start="0" length="0">
-      <dxf/>
-    </rfmt>
-    <rfmt sheetId="1" sqref="L204" start="0" length="0">
-      <dxf/>
-    </rfmt>
-    <rfmt sheetId="1" sqref="M204" start="0" length="0">
-      <dxf/>
-    </rfmt>
-  </rrc>
-  <rrc rId="1180" sId="1" ref="A204:XFD204" action="deleteRow">
-    <rfmt sheetId="1" xfDxf="1" sqref="A204:XFD204" start="0" length="0"/>
-    <rfmt sheetId="1" sqref="A204" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <color auto="1"/>
-          <name val="Arial"/>
-          <scheme val="none"/>
-        </font>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="B204" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <color auto="1"/>
-          <name val="Arial"/>
-          <scheme val="none"/>
-        </font>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1">
-      <nc r="C204" t="inlineStr">
-        <is>
-          <t>tba</t>
-        </is>
-      </nc>
-      <ndxf>
-        <font>
-          <sz val="10"/>
-          <color auto="1"/>
-          <name val="Arial"/>
-          <scheme val="none"/>
-        </font>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </ndxf>
-    </rcc>
-    <rfmt sheetId="1" sqref="D204" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="10"/>
-          <color auto="1"/>
-          <name val="Arial"/>
-          <scheme val="none"/>
-        </font>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="E204" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <color auto="1"/>
-          <name val="Arial"/>
-          <scheme val="none"/>
-        </font>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="F204" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="G204" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="I204" start="0" length="0">
-      <dxf>
-        <alignment horizontal="right" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="K204" start="0" length="0">
-      <dxf/>
-    </rfmt>
-    <rfmt sheetId="1" sqref="L204" start="0" length="0">
-      <dxf/>
-    </rfmt>
-    <rfmt sheetId="1" sqref="M204" start="0" length="0">
-      <dxf/>
-    </rfmt>
-  </rrc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog111111.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="1122" sId="1">
-    <oc r="A5" t="inlineStr">
-      <is>
-        <t>A'ROSA</t>
-      </is>
-    </oc>
-    <nc r="A5" t="inlineStr">
-      <is>
-        <t>A\'ROSA</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="1123" sId="1" xfDxf="1" dxf="1">
-    <nc r="K5" t="inlineStr">
-      <is>
-        <t xml:space="preserve">company = new Company() {Name = "A\'ROSA"}; </t>
-      </is>
-    </nc>
-    <ndxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" readingOrder="0"/>
-    </ndxf>
-  </rcc>
-  <rfmt sheetId="1" sqref="K1:M1048576">
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="K1:M1048576">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-  </rfmt>
-  <rcc rId="1124" sId="1">
-    <nc r="K5">
-      <f>"company = new Company() {Name = ""&amp;A5&amp;""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1125" sId="1">
-    <nc r="K17">
-      <f>"company = new Company() {Name = ""&amp;A17&amp;""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1126" sId="1">
-    <nc r="K18">
-      <f>"company = new Company() {Name = ""&amp;A17&amp;""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1127" sId="1">
-    <nc r="K19">
-      <f>"company = new Company() {Name = ""&amp;A17&amp;""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1128" sId="1">
-    <nc r="K20">
-      <f>"company = new Company() {Name = ""&amp;A17&amp;""}; "</f>
-    </nc>
-  </rcc>
-  <rcc rId="1129" sId="1">
-    <nc r="K5">
-      <f>"company = new Company() {Name = ""&amp; A5 &amp;""}; "</f>
-    </nc>
-  </rcc>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_104E5852_1DB4_4A99_BD45_784ED10218DE_.wvu.PrintTitles" hidden="1" oldHidden="1">
-    <formula>Sheet1!$1:$1</formula>
-  </rdn>
-  <rcv guid="{104E5852-1DB4-4A99-BD45-784ED10218DE}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog12.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="1544" sId="1">
-    <oc r="A164" t="inlineStr">
-      <is>
-        <t>Nederlandse 
-Rode Kruis</t>
-      </is>
-    </oc>
-    <nc r="A164" t="inlineStr">
-      <is>
-        <t>Nederlandse Rode Kruis</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog121.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="1539" sId="1">
-    <oc r="A94" t="inlineStr">
-      <is>
-        <t>Euro Shipping 
-Voyages, Bemmel</t>
-      </is>
-    </oc>
-    <nc r="A94" t="inlineStr">
-      <is>
-        <t>Euro Shipping Voyages, Bemmel</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog1211.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="1538" sId="1">
-    <oc r="A87" t="inlineStr">
-      <is>
-        <t>Dunav Tours, 
-Rousse</t>
-      </is>
-    </oc>
-    <nc r="A87" t="inlineStr">
-      <is>
-        <t>Dunav Tours, Rousse</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog12111.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="1537" sId="1">
-    <oc r="A81" t="inlineStr">
-      <is>
-        <t>Douro Azul, 
-Portugal</t>
-      </is>
-    </oc>
-    <nc r="A81" t="inlineStr">
-      <is>
-        <t>Douro Azul, Portugal</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog13.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="1553" sId="1">
-    <oc r="A292" t="inlineStr">
-      <is>
-        <t>De Zeeuw Reederei 
-Management, Basel</t>
-      </is>
-    </oc>
-    <nc r="A292" t="inlineStr">
-      <is>
-        <t>De Zeeuw Reederei Management, Basel</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog131.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="1543" sId="1">
-    <oc r="A162" t="inlineStr">
-      <is>
-        <t>Marine Cruise Co. 
-Caravella</t>
-      </is>
-    </oc>
-    <nc r="A162" t="inlineStr">
-      <is>
-        <t>Marine Cruise Co. Caravella</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog1311.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="1542" sId="1">
-    <oc r="A149" t="inlineStr">
-      <is>
-        <t>Lüftner Reisen GmbH,
- Innsbruck</t>
-      </is>
-    </oc>
-    <nc r="A149" t="inlineStr">
-      <is>
-        <t>Lüftner Reisen GmbH, Innsbruck</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog13111.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="1541" sId="1">
-    <oc r="A119" t="inlineStr">
-      <is>
-        <t>Global River 
-Cruises GmbH</t>
-      </is>
-    </oc>
-    <nc r="A119" t="inlineStr">
-      <is>
-        <t>Global River Cruises GmbH</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog131111.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="1540" sId="1">
-    <oc r="A105" t="inlineStr">
-      <is>
-        <t>Feenstra Rhine 
-Line, Arnhem</t>
-      </is>
-    </oc>
-    <nc r="A105" t="inlineStr">
-      <is>
-        <t>Feenstra Rhine Line, Arnhem</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog14.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="1552" sId="1">
-    <oc r="A272" t="inlineStr">
-      <is>
-        <t>Viking River 
-Cruises, Basel</t>
-      </is>
-    </oc>
-    <nc r="A272" t="inlineStr">
-      <is>
-        <t>Viking River Cruises, Basel</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog141.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="1547" sId="1">
-    <oc r="A229" t="inlineStr">
-      <is>
-        <t>Scenic Tours 
-Europe AG, Zug</t>
-      </is>
-    </oc>
-    <nc r="A229" t="inlineStr">
-      <is>
-        <t>Scenic Tours Europe AG, Zug</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog1411.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="1546" sId="1">
-    <oc r="A172" t="inlineStr">
-      <is>
-        <t>Premicon AG, 
-München</t>
-      </is>
-    </oc>
-    <nc r="A172" t="inlineStr">
-      <is>
-        <t>Premicon AG, München</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog14111.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="1545" sId="1">
-    <oc r="A166" t="inlineStr">
-      <is>
-        <t>Cruiselines 
-Nijmegen B.V.</t>
-      </is>
-    </oc>
-    <nc r="A166" t="inlineStr">
-      <is>
-        <t>Cruiselines Nijmegen B.V.</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog15.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="1551" sId="1">
-    <oc r="A265" t="inlineStr">
-      <is>
-        <t>Trans River Line 
-BV, Amsterdam</t>
-      </is>
-    </oc>
-    <nc r="A265" t="inlineStr">
-      <is>
-        <t>Trans River Line BV, Amsterdam</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog151.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="1550" sId="1">
-    <oc r="A261" t="inlineStr">
-      <is>
-        <t>SODENAF
-Recreatie</t>
-      </is>
-    </oc>
-    <nc r="A261" t="inlineStr">
-      <is>
-        <t>SODENAF Recreatie</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog1511.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rcc rId="1548" sId="1">
-    <oc r="A239" t="inlineStr">
-      <is>
-        <t>Scylla Tours 
-AG, Basel</t>
-      </is>
-    </oc>
-    <nc r="A239" t="inlineStr">
-      <is>
-        <t>Scylla Tours AG, Basel</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="1549" sId="1">
-    <oc r="A258" t="inlineStr">
-      <is>
-        <t>Sea Cloud Cruises 
-GmbH, Hamburg</t>
-      </is>
-    </oc>
-    <nc r="A258" t="inlineStr">
-      <is>
-        <t>Sea Cloud Cruises GmbH, Hamburg</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="978" sId="1">
-    <oc r="E259" t="inlineStr">
-      <is>
-        <t>Rhine-Ma</t>
-      </is>
-    </oc>
-    <nc r="E259" t="inlineStr">
-      <is>
-        <t>Rhine-Main -Danube</t>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="979" sId="1" eol="1" ref="A260:XFD260" action="insertRow"/>
-  <rcc rId="980" sId="1">
-    <nc r="B260" t="inlineStr">
-      <is>
-        <t>AMELIA</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="981" sId="1">
-    <nc r="F260">
-      <v>42</v>
-    </nc>
-  </rcc>
-  <rcc rId="982" sId="1">
-    <nc r="G260">
-      <v>6</v>
-    </nc>
-  </rcc>
-  <rcc rId="983" sId="1">
-    <nc r="H260">
-      <f>F260-G260</f>
-    </nc>
-  </rcc>
-  <rrc rId="984" sId="1" ref="A261:XFD261" action="deleteRow">
-    <rfmt sheetId="1" xfDxf="1" sqref="A261:XFD261" start="0" length="0"/>
-  </rrc>
-  <rrc rId="985" sId="1" ref="A261:XFD261" action="deleteRow">
-    <rfmt sheetId="1" xfDxf="1" sqref="A261:XFD261" start="0" length="0"/>
-  </rrc>
-  <rrc rId="986" sId="1" ref="A261:XFD261" action="deleteRow">
-    <rfmt sheetId="1" xfDxf="1" sqref="A261:XFD261" start="0" length="0"/>
-  </rrc>
-  <rrc rId="987" sId="1" ref="A261:XFD261" action="deleteRow">
-    <rfmt sheetId="1" xfDxf="1" sqref="A261:XFD261" start="0" length="0"/>
-  </rrc>
-  <rrc rId="988" sId="1" ref="A261:XFD261" action="deleteRow">
-    <undo index="0" exp="area" dr="H243:H261" r="I242" sId="1"/>
-    <rfmt sheetId="1" xfDxf="1" sqref="A261:XFD261" start="0" length="0"/>
-  </rrc>
-  <rrc rId="989" sId="1" ref="A261:XFD261" action="deleteRow">
-    <rfmt sheetId="1" xfDxf="1" sqref="A261:XFD261" start="0" length="0"/>
-  </rrc>
-  <rcc rId="990" sId="1">
-    <nc r="C263">
-      <v>4800450</v>
-    </nc>
-  </rcc>
-  <rcc rId="991" sId="1">
-    <oc r="B262" t="inlineStr">
-      <is>
-        <t>RIVER CLOUD</t>
-      </is>
-    </oc>
-    <nc r="B262" t="inlineStr">
-      <is>
-        <t>RIGOLETTO</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="992" sId="1">
-    <nc r="C262">
-      <v>2325887</v>
-    </nc>
-  </rcc>
-  <rcc rId="993" sId="1" odxf="1" dxf="1">
-    <oc r="D262" t="inlineStr">
-      <is>
-        <t>SWZ</t>
-      </is>
-    </oc>
-    <nc r="D262" t="inlineStr">
-      <is>
-        <t>NTH</t>
-      </is>
-    </nc>
-    <odxf>
-      <font>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </odxf>
-    <ndxf>
-      <font>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </ndxf>
-  </rcc>
-  <rcc rId="994" sId="1">
-    <oc r="F262">
-      <v>36</v>
-    </oc>
-    <nc r="F262">
-      <v>26</v>
-    </nc>
-  </rcc>
-  <rcc rId="995" sId="1">
-    <oc r="A264" t="inlineStr">
-      <is>
-        <t>Sticht. Varende 
-Recreatie</t>
-      </is>
-    </oc>
-    <nc r="A264" t="inlineStr">
-      <is>
-        <t>SODENAF
-Recreatie</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="996" sId="1">
-    <oc r="B265" t="inlineStr">
-      <is>
-        <t>PRINS WILLEM-ALEXANDER</t>
-      </is>
-    </oc>
-    <nc r="B265" t="inlineStr">
-      <is>
-        <t>ANACOLUTHE</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="997" sId="1" odxf="1" dxf="1">
-    <oc r="D265" t="inlineStr">
-      <is>
-        <t>NTH</t>
-      </is>
-    </oc>
-    <nc r="D265" t="inlineStr">
-      <is>
-        <t>FRA</t>
-      </is>
-    </nc>
-    <odxf>
-      <font>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </odxf>
-    <ndxf>
-      <font>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </ndxf>
-  </rcc>
-  <rcc rId="998" sId="1">
-    <oc r="E265" t="inlineStr">
-      <is>
-        <t>NL, Rhine-Mosel</t>
-      </is>
-    </oc>
-    <nc r="E265" t="inlineStr">
-      <is>
-        <t>Seine</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="999" sId="1">
-    <oc r="F265">
-      <v>7</v>
-    </oc>
-    <nc r="F265">
-      <v>14</v>
-    </nc>
-  </rcc>
-  <rcc rId="1000" sId="1">
-    <oc r="G265">
-      <v>6</v>
-    </oc>
-    <nc r="G265">
-      <v>4</v>
-    </nc>
-  </rcc>
-  <rrc rId="1001" sId="1" ref="A273:XFD273" action="insertRow"/>
-  <rrc rId="1002" sId="1" ref="A273:XFD273" action="insertRow"/>
-  <rcc rId="1003" sId="1" odxf="1" dxf="1">
-    <nc r="A273" t="inlineStr">
-      <is>
-        <t>Varende Recreatie</t>
-      </is>
-    </nc>
-    <odxf>
-      <font>
-        <b val="0"/>
-        <sz val="8"/>
-      </font>
-    </odxf>
-    <ndxf>
-      <font>
-        <b/>
-        <sz val="8"/>
-      </font>
-    </ndxf>
-  </rcc>
-  <rcc rId="1004" sId="1">
-    <nc r="B274" t="inlineStr">
-      <is>
-        <t>PRINCE WILLEM-ALEXANDER</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="1005" sId="1">
-    <nc r="C274">
-      <v>2325776</v>
-    </nc>
-  </rcc>
-  <rcc rId="1006" sId="1" odxf="1" dxf="1">
-    <nc r="D274" t="inlineStr">
-      <is>
-        <t>NTH</t>
-      </is>
-    </nc>
-    <odxf>
-      <font>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </odxf>
-    <ndxf>
-      <font>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </ndxf>
-  </rcc>
-  <rcc rId="1007" sId="1">
-    <nc r="F274">
-      <v>7</v>
-    </nc>
-  </rcc>
-  <rcc rId="1008" sId="1">
-    <nc r="G274">
-      <v>2</v>
-    </nc>
-  </rcc>
-  <rcc rId="1009" sId="1">
-    <nc r="H274">
-      <v>5</v>
-    </nc>
-  </rcc>
-  <rfmt sheetId="1" sqref="H274">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rcc rId="1010" sId="1">
-    <nc r="I273">
-      <v>5</v>
-    </nc>
-  </rcc>
-  <rfmt sheetId="1" sqref="A273" start="0" length="0">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="A273:I273" start="0" length="0">
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="I273" start="0" length="0">
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="A273:I273" start="0" length="0">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-  <rcc rId="1011" sId="1">
-    <nc r="C276">
-      <v>5113930</v>
-    </nc>
-  </rcc>
-  <rcc rId="1012" sId="1">
-    <nc r="C277">
-      <v>5113670</v>
-    </nc>
-  </rcc>
-  <rcc rId="1013" sId="1">
-    <nc r="C278">
-      <v>9240010</v>
-    </nc>
-  </rcc>
-  <rrc rId="1014" sId="1" ref="A280:XFD280" action="insertRow"/>
-  <rrc rId="1015" sId="1" ref="A280:XFD280" action="insertRow"/>
-  <rcc rId="1016" sId="1">
-    <nc r="B280" t="inlineStr">
-      <is>
-        <t>VIKING DANUBE</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="1017" sId="1">
-    <nc r="C280">
-      <v>4608050</v>
-    </nc>
-  </rcc>
-  <rcc rId="1018" sId="1" odxf="1" dxf="1">
-    <nc r="D280" t="inlineStr">
-      <is>
-        <t>GFR</t>
-      </is>
-    </nc>
-    <odxf>
-      <font>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </odxf>
-    <ndxf>
-      <font>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </ndxf>
-  </rcc>
-  <rcc rId="1019" sId="1">
-    <nc r="E280" t="inlineStr">
-      <is>
-        <t>Danube</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="1020" sId="1">
-    <nc r="F280">
-      <v>40</v>
-    </nc>
-  </rcc>
-  <rcc rId="1021" sId="1">
-    <nc r="G280">
-      <v>6</v>
-    </nc>
-  </rcc>
-  <rfmt sheetId="1" sqref="H280">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rcc rId="1022" sId="1">
-    <nc r="H280">
-      <f>F280-G280</f>
-    </nc>
-  </rcc>
-  <rrc rId="1023" sId="1" ref="A282:XFD282" action="insertRow"/>
-  <rcc rId="1024" sId="1">
-    <nc r="B281" t="inlineStr">
-      <is>
-        <t>VIKING PRIDE</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="1025" sId="1">
-    <nc r="C281">
-      <v>4800210</v>
-    </nc>
-  </rcc>
-  <rcc rId="1026" sId="1" odxf="1" dxf="1">
-    <nc r="D281" t="inlineStr">
-      <is>
-        <t>GFR</t>
-      </is>
-    </nc>
-    <odxf>
-      <font>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </odxf>
-    <ndxf>
-      <font>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </ndxf>
-  </rcc>
-  <rcc rId="1027" sId="1">
-    <nc r="E281" t="inlineStr">
-      <is>
-        <t>NL-Rhine-M-Danube</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="1028" sId="1">
-    <nc r="F281">
-      <v>42</v>
-    </nc>
-  </rcc>
-  <rcc rId="1029" sId="1">
-    <nc r="G281">
-      <v>6</v>
-    </nc>
-  </rcc>
-  <rfmt sheetId="1" sqref="H281">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rcc rId="1030" sId="1">
-    <nc r="H281">
-      <f>F281-G281</f>
-    </nc>
-  </rcc>
-  <rrc rId="1031" sId="1" ref="A283:XFD283" action="insertRow"/>
-  <rrc rId="1032" sId="1" ref="A283:XFD283" action="insertRow"/>
-  <rcc rId="1033" sId="1">
-    <nc r="B282" t="inlineStr">
-      <is>
-        <t>VIKING EUROPE</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="1034" sId="1">
-    <nc r="C282">
-      <v>4800250</v>
-    </nc>
-  </rcc>
-  <rcc rId="1035" sId="1" odxf="1" dxf="1">
-    <nc r="D282" t="inlineStr">
-      <is>
-        <t>GFR</t>
-      </is>
-    </nc>
-    <odxf>
-      <font>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </odxf>
-    <ndxf>
-      <font>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </ndxf>
-  </rcc>
-  <rcc rId="1036" sId="1">
-    <nc r="E282" t="inlineStr">
-      <is>
-        <t>NL-Rhine-M-Danube</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="1037" sId="1">
-    <nc r="F282">
-      <v>42</v>
-    </nc>
-  </rcc>
-  <rcc rId="1038" sId="1">
-    <nc r="G282">
-      <v>6</v>
-    </nc>
-  </rcc>
-  <rfmt sheetId="1" sqref="H282">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rcc rId="1039" sId="1">
-    <nc r="H282">
-      <f>F282-G282</f>
-    </nc>
-  </rcc>
-  <rm rId="1040" sheetId="1" source="B286:H286" destination="B284:H284" sourceSheetId="1">
-    <rfmt sheetId="1" sqref="B284" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <color auto="1"/>
-          <name val="Arial"/>
-          <scheme val="none"/>
-        </font>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="C284" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="D284" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="E284" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <color auto="1"/>
-          <name val="Arial"/>
-          <scheme val="none"/>
-        </font>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="F284" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="G284" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="H284" start="0" length="0">
-      <dxf/>
-    </rfmt>
-  </rm>
-  <rcc rId="1041" sId="1">
-    <nc r="B283" t="inlineStr">
-      <is>
-        <t>VIKING SPIRIT</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="1042" sId="1">
-    <nc r="C283">
-      <v>4800380</v>
-    </nc>
-  </rcc>
-  <rcc rId="1043" sId="1" odxf="1" dxf="1">
-    <nc r="D283" t="inlineStr">
-      <is>
-        <t>GFR</t>
-      </is>
-    </nc>
-    <odxf>
-      <font>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </odxf>
-    <ndxf>
-      <font>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </ndxf>
-  </rcc>
-  <rcc rId="1044" sId="1">
-    <nc r="E283" t="inlineStr">
-      <is>
-        <t>Seine</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="1045" sId="1">
-    <nc r="F283">
-      <v>42</v>
-    </nc>
-  </rcc>
-  <rcc rId="1046" sId="1">
-    <nc r="G283">
-      <v>6</v>
-    </nc>
-  </rcc>
-  <rfmt sheetId="1" sqref="H283">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rcc rId="1047" sId="1">
-    <nc r="H283">
-      <f>F283-G283</f>
-    </nc>
-  </rcc>
-  <rrc rId="1048" sId="1" ref="A285:XFD285" action="insertRow"/>
-  <rrc rId="1049" sId="1" ref="A286:XFD286" action="insertRow"/>
-  <rm rId="1050" sheetId="1" source="B289:H289" destination="B285:H285" sourceSheetId="1">
-    <rfmt sheetId="1" sqref="B285" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <color auto="1"/>
-          <name val="Arial"/>
-          <scheme val="none"/>
-        </font>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="C285" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="D285" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="E285" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <color auto="1"/>
-          <name val="Arial"/>
-          <scheme val="none"/>
-        </font>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="F285" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="G285" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="H285" start="0" length="0">
-      <dxf/>
-    </rfmt>
-  </rm>
-  <rm rId="1051" sheetId="1" source="B290:H290" destination="B286:H286" sourceSheetId="1">
-    <rfmt sheetId="1" sqref="B286" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <color auto="1"/>
-          <name val="Arial"/>
-          <scheme val="none"/>
-        </font>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="C286" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="D286" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="E286" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <color auto="1"/>
-          <name val="Arial"/>
-          <scheme val="none"/>
-        </font>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="F286" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="G286" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="H286" start="0" length="0">
-      <dxf/>
-    </rfmt>
-  </rm>
-  <rrc rId="1052" sId="1" ref="A287:XFD287" action="insertRow"/>
-  <rm rId="1053" sheetId="1" source="B292:I292" destination="B287:I287" sourceSheetId="1">
-    <undo index="0" exp="area" dr="H276:H292" r="I275" sId="1"/>
-    <rfmt sheetId="1" sqref="B287" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <color auto="1"/>
-          <name val="Arial"/>
-          <scheme val="none"/>
-        </font>
-        <fill>
-          <patternFill patternType="solid">
-            <bgColor indexed="13"/>
-          </patternFill>
-        </fill>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="C287" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="D287" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="E287" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <color auto="1"/>
-          <name val="Arial"/>
-          <scheme val="none"/>
-        </font>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="F287" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="G287" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="H287" start="0" length="0">
-      <dxf/>
-    </rfmt>
-    <rfmt sheetId="1" sqref="I287" start="0" length="0">
-      <dxf>
-        <alignment horizontal="right" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-  </rm>
-  <rcc rId="1054" sId="1">
-    <nc r="C287">
-      <v>4804700</v>
-    </nc>
-  </rcc>
-  <rcc rId="1055" sId="1" odxf="1" dxf="1">
-    <nc r="D287" t="inlineStr">
-      <is>
-        <t>GFR</t>
-      </is>
-    </nc>
-    <odxf>
-      <font>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </odxf>
-    <ndxf>
-      <font>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </ndxf>
-  </rcc>
-  <rrc rId="1056" sId="1" ref="A288:XFD288" action="insertRow"/>
-  <rrc rId="1057" sId="1" ref="A289:XFD289" action="insertRow"/>
-  <rcc rId="1058" sId="1">
-    <nc r="B288" t="inlineStr">
-      <is>
-        <t>VIKING PRESTIGE</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="1059" sId="1">
-    <nc r="C288">
-      <v>7001942</v>
-    </nc>
-  </rcc>
-  <rcc rId="1060" sId="1">
-    <nc r="D288" t="inlineStr">
-      <is>
-        <t>SWZ</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="1061" sId="1">
-    <nc r="E288" t="inlineStr">
-      <is>
-        <t>Nuremberg-Danube</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="1062" sId="1">
-    <nc r="F288">
-      <v>49</v>
-    </nc>
-  </rcc>
-  <rcc rId="1063" sId="1">
-    <nc r="G288">
-      <v>6</v>
-    </nc>
-  </rcc>
-  <rfmt sheetId="1" sqref="H288">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rcc rId="1064" sId="1">
-    <nc r="H288">
-      <f>F288-G288</f>
-    </nc>
-  </rcc>
-  <rcc rId="1065" sId="1">
-    <nc r="B289" t="inlineStr">
-      <is>
-        <t>VIKING NJORD</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="1066" sId="1">
-    <nc r="F289">
-      <v>50</v>
-    </nc>
-  </rcc>
-  <rcc rId="1067" sId="1">
-    <nc r="G289">
-      <v>6</v>
-    </nc>
-  </rcc>
-  <rfmt sheetId="1" sqref="H289">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rcc rId="1068" sId="1">
-    <nc r="H289">
-      <f>F289-G289</f>
-    </nc>
-  </rcc>
-  <rrc rId="1069" sId="1" ref="A290:XFD290" action="insertRow"/>
-  <rrc rId="1070" sId="1" ref="A290:XFD290" action="insertRow"/>
-  <rrc rId="1071" sId="1" ref="A290:XFD290" action="insertRow"/>
-  <rrc rId="1072" sId="1" ref="A290:XFD290" action="insertRow"/>
-  <rcc rId="1073" sId="1">
-    <nc r="B290" t="inlineStr">
-      <is>
-        <t>VIKING IDUN</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="1074" sId="1">
-    <nc r="F290">
-      <v>49</v>
-    </nc>
-  </rcc>
-  <rcc rId="1075" sId="1">
-    <nc r="G290">
-      <v>6</v>
-    </nc>
-  </rcc>
-  <rfmt sheetId="1" sqref="H290">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rcc rId="1076" sId="1">
-    <nc r="H290">
-      <f>F290-G290</f>
-    </nc>
-  </rcc>
-  <rcc rId="1077" sId="1">
-    <nc r="F291">
-      <v>49</v>
-    </nc>
-  </rcc>
-  <rcc rId="1078" sId="1">
-    <nc r="G291">
-      <v>6</v>
-    </nc>
-  </rcc>
-  <rfmt sheetId="1" sqref="H291">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rcc rId="1079" sId="1">
-    <nc r="H291">
-      <f>F291-G291</f>
-    </nc>
-  </rcc>
-  <rcc rId="1080" sId="1">
-    <nc r="B291" t="inlineStr">
-      <is>
-        <t>VIKING FREYA</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="1081" sId="1">
-    <nc r="B293" t="inlineStr">
-      <is>
-        <t xml:space="preserve">VIKING ODIN </t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="1082" sId="1">
-    <nc r="B292" t="inlineStr">
-      <is>
-        <t>VIKING EMBLA</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="1083" sId="1">
-    <oc r="B294" t="inlineStr">
-      <is>
-        <t>VIKING SEINE</t>
-      </is>
-    </oc>
-    <nc r="B294" t="inlineStr">
-      <is>
-        <t>VIKING AEGIR</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="1084" sId="1">
-    <oc r="C294">
-      <v>2324591</v>
-    </oc>
-    <nc r="C294"/>
-  </rcc>
-  <rcc rId="1085" sId="1">
-    <oc r="D294" t="inlineStr">
-      <is>
-        <t>NTH</t>
-      </is>
-    </oc>
-    <nc r="D294"/>
-  </rcc>
-  <rcc rId="1086" sId="1">
-    <nc r="F292">
-      <v>49</v>
-    </nc>
-  </rcc>
-  <rcc rId="1087" sId="1">
-    <nc r="G292">
-      <v>6</v>
-    </nc>
-  </rcc>
-  <rfmt sheetId="1" sqref="H292">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rcc rId="1088" sId="1">
-    <nc r="H292">
-      <f>F292-G292</f>
-    </nc>
-  </rcc>
-  <rcc rId="1089" sId="1">
-    <oc r="E294" t="inlineStr">
-      <is>
-        <t>Seine</t>
-      </is>
-    </oc>
-    <nc r="E294"/>
-  </rcc>
-  <rcc rId="1090" sId="1">
-    <nc r="F293">
-      <v>49</v>
-    </nc>
-  </rcc>
-  <rcc rId="1091" sId="1">
-    <nc r="G293">
-      <v>6</v>
-    </nc>
-  </rcc>
-  <rfmt sheetId="1" sqref="H293">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rcc rId="1092" sId="1">
-    <nc r="H293">
-      <f>F293-G293</f>
-    </nc>
-  </rcc>
-  <rcc rId="1093" sId="1">
-    <oc r="F294">
-      <v>40</v>
-    </oc>
-    <nc r="F294">
-      <v>49</v>
-    </nc>
-  </rcc>
-  <rrc rId="1094" sId="1" ref="A296:XFD296" action="deleteRow">
-    <rfmt sheetId="1" xfDxf="1" sqref="A296:XFD296" start="0" length="0"/>
-    <rfmt sheetId="1" sqref="A296" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <color auto="1"/>
-          <name val="Arial"/>
-          <scheme val="none"/>
-        </font>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="B296" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <color auto="1"/>
-          <name val="Arial"/>
-          <scheme val="none"/>
-        </font>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="C296" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="D296" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="E296" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <color auto="1"/>
-          <name val="Arial"/>
-          <scheme val="none"/>
-        </font>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="F296" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="G296" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="I296" start="0" length="0">
-      <dxf>
-        <alignment horizontal="right" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-  </rrc>
-  <rrc rId="1095" sId="1" ref="A296:XFD296" action="deleteRow">
-    <undo index="0" exp="area" dr="H276:H296" r="I275" sId="1"/>
-    <rfmt sheetId="1" xfDxf="1" sqref="A296:XFD296" start="0" length="0"/>
-    <rfmt sheetId="1" sqref="A296" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <color auto="1"/>
-          <name val="Arial"/>
-          <scheme val="none"/>
-        </font>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="B296" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <color auto="1"/>
-          <name val="Arial"/>
-          <scheme val="none"/>
-        </font>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="C296" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="D296" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="E296" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <color auto="1"/>
-          <name val="Arial"/>
-          <scheme val="none"/>
-        </font>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="F296" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="G296" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="I296" start="0" length="0">
-      <dxf>
-        <alignment horizontal="right" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-  </rrc>
-  <rrc rId="1096" sId="1" ref="A296:XFD296" action="deleteRow">
-    <rfmt sheetId="1" xfDxf="1" sqref="A296:XFD296" start="0" length="0"/>
-    <rfmt sheetId="1" sqref="A296" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <color auto="1"/>
-          <name val="Arial"/>
-          <scheme val="none"/>
-        </font>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="B296" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <color auto="1"/>
-          <name val="Arial"/>
-          <scheme val="none"/>
-        </font>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="C296" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="D296" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="E296" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <color auto="1"/>
-          <name val="Arial"/>
-          <scheme val="none"/>
-        </font>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="F296" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="G296" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="I296" start="0" length="0">
-      <dxf>
-        <alignment horizontal="right" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-  </rrc>
-  <rrc rId="1097" sId="1" ref="A299:XFD299" action="insertRow"/>
-  <rcc rId="1098" sId="1">
-    <nc r="B299" t="inlineStr">
-      <is>
-        <t>RHEIN PRINZESSEN</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="1" sqref="C299" start="0" length="0">
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rcc rId="1099" sId="1">
-    <nc r="C299">
-      <v>7001707</v>
-    </nc>
-  </rcc>
-  <rcc rId="1100" sId="1" odxf="1" dxf="1">
-    <nc r="D299" t="inlineStr">
-      <is>
-        <t>MTA</t>
-      </is>
-    </nc>
-    <odxf>
-      <font>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </odxf>
-    <ndxf>
-      <font>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </ndxf>
-  </rcc>
-  <rcc rId="1101" sId="1">
-    <nc r="E299" t="inlineStr">
-      <is>
-        <t>B/NL, Rhine-Mosel</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="1102" sId="1">
-    <nc r="F299">
-      <v>35</v>
-    </nc>
-  </rcc>
-  <rcc rId="1103" sId="1">
-    <nc r="G299">
-      <v>6</v>
-    </nc>
-  </rcc>
-  <rcc rId="1104" sId="1">
-    <nc r="H299">
-      <v>29</v>
-    </nc>
-  </rcc>
-  <rfmt sheetId="1" sqref="H299">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rcc rId="1105" sId="1">
-    <oc r="I296">
-      <f>SUM(H297:H298)</f>
-    </oc>
-    <nc r="I296">
-      <f>SUM(H297:H299)</f>
-    </nc>
-  </rcc>
-  <rcc rId="1106" sId="1">
-    <nc r="C297">
-      <v>7001270</v>
-    </nc>
-  </rcc>
-  <rcc rId="1107" sId="1">
-    <nc r="C298">
-      <v>7000661</v>
-    </nc>
-  </rcc>
-  <rrc rId="1108" sId="1" ref="A295:XFD295" action="deleteRow">
-    <undo index="0" exp="area" dr="H276:H295" r="I275" sId="1"/>
-    <rfmt sheetId="1" xfDxf="1" sqref="A295:XFD295" start="0" length="0"/>
-    <rfmt sheetId="1" sqref="A295" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <color auto="1"/>
-          <name val="Arial"/>
-          <scheme val="none"/>
-        </font>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="B295" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <color auto="1"/>
-          <name val="Arial"/>
-          <scheme val="none"/>
-        </font>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="C295" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="D295" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="E295" start="0" length="0">
-      <dxf>
-        <font>
-          <sz val="8"/>
-          <color auto="1"/>
-          <name val="Arial"/>
-          <scheme val="none"/>
-        </font>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="F295" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="G295" start="0" length="0">
-      <dxf>
-        <alignment horizontal="center" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="1" sqref="I295" start="0" length="0">
-      <dxf>
-        <alignment horizontal="right" vertical="top" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-  </rrc>
-  <rcc rId="1109" sId="1" odxf="1" dxf="1">
-    <nc r="C204" t="inlineStr">
-      <is>
-        <t>tba</t>
-      </is>
-    </nc>
-    <odxf>
-      <font>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </odxf>
-    <ndxf>
-      <font>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </ndxf>
-  </rcc>
-  <rcc rId="1110" sId="1" odxf="1" dxf="1">
-    <nc r="C205" t="inlineStr">
-      <is>
-        <t>tba</t>
-      </is>
-    </nc>
-    <odxf>
-      <font>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </odxf>
-    <ndxf>
-      <font>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </ndxf>
-  </rcc>
-  <rcc rId="1111" sId="1" odxf="1" dxf="1">
-    <nc r="C206" t="inlineStr">
-      <is>
-        <t>tba</t>
-      </is>
-    </nc>
-    <odxf>
-      <font>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </odxf>
-    <ndxf>
-      <font>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </ndxf>
-  </rcc>
-  <rcc rId="1112" sId="1">
-    <nc r="C8">
-      <v>4801870</v>
-    </nc>
-  </rcc>
-  <rcc rId="1113" sId="1">
-    <nc r="C9">
-      <v>4802780</v>
-    </nc>
-  </rcc>
-  <rcc rId="1114" sId="1">
-    <nc r="C10">
-      <v>4803520</v>
-    </nc>
-  </rcc>
-  <rcc rId="1115" sId="1">
-    <nc r="C11">
-      <v>4803530</v>
-    </nc>
-  </rcc>
-  <rcc rId="1116" sId="1">
-    <nc r="C12">
-      <v>4807500</v>
-    </nc>
-  </rcc>
-  <rcc rId="1117" sId="1">
-    <nc r="C13">
-      <v>4808020</v>
-    </nc>
-  </rcc>
-  <rrc rId="1118" sId="1" ref="A16:XFD16" action="insertRow"/>
-  <rcc rId="1119" sId="1" odxf="1" dxf="1">
-    <nc r="C16" t="inlineStr">
-      <is>
-        <t>tba</t>
-      </is>
-    </nc>
-    <odxf>
-      <font>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </odxf>
-    <ndxf>
-      <font>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </ndxf>
-  </rcc>
-  <rcc rId="1120" sId="1">
-    <nc r="C14">
-      <v>4809910</v>
-    </nc>
-  </rcc>
-  <rcv guid="{027BC51B-0A43-4784-A1D6-2EEE1DE07107}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_027BC51B_0A43_4784_A1D6_2EEE1DE07107_.wvu.PrintTitles" hidden="1" oldHidden="1">
-    <formula>Sheet1!$1:$1</formula>
-    <oldFormula>Sheet1!$1:$1</oldFormula>
-  </rdn>
-  <rcv guid="{027BC51B-0A43-4784-A1D6-2EEE1DE07107}" action="add"/>
-</revisions>
-</file>
-
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1">
-  <userInfo guid="{378ECCFA-D24C-49D5-9BC0-060C1DC31D37}" name="Likkedwagon" id="-2018494784" dateTime="2014-12-28T17:07:31"/>
-</users>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10648,7 +5251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
       <selection activeCell="J307" sqref="J307"/>
     </sheetView>
   </sheetViews>
